--- a/semester A/Data Analysis/Assignments/Koutsompinas-Assignment-1-Exercise-2&3.xlsx
+++ b/semester A/Data Analysis/Assignments/Koutsompinas-Assignment-1-Exercise-2&3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ppapa\OneDrive\Υπολογιστής\MSC\semester A\Data Analysis\Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E8E3CA-D5EB-43E9-B4C5-FC59FD93EF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C773CB-700D-4A95-BACB-4772EB52E082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercise 2 Productivity" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId4"/>
-    <pivotCache cacheId="5" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -172,7 +172,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -275,40 +275,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -342,7 +339,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Productivity_and_Downtime_Data.xlsx]Exercise 2 Productivity!PivotTable1</c:name>
+    <c:name>[Koutsompinas-Assignment-1-Exercise-2&amp;3.xlsx]Exercise 2 Productivity!PivotTable1</c:name>
     <c:fmtId val="8"/>
   </c:pivotSource>
   <c:chart>
@@ -397,57 +394,7 @@
           </a:sp3d>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="51000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="80000">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="93000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="94000"/>
-                    <a:satMod val="135000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="16200000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-            <a:scene3d>
-              <a:camera prst="orthographicFront">
-                <a:rot lat="0" lon="0" rev="0"/>
-              </a:camera>
-              <a:lightRig rig="threePt" dir="t">
-                <a:rot lat="0" lon="0" rev="1200000"/>
-              </a:lightRig>
-            </a:scene3d>
-            <a:sp3d>
-              <a:bevelT w="63500" h="25400"/>
-            </a:sp3d>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -1156,7 +1103,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Productivity_and_Downtime_Data.xlsx]Exercise 2 Downtime!PivotTable1</c:name>
+    <c:name>[Koutsompinas-Assignment-1-Exercise-2&amp;3.xlsx]Exercise 2 Downtime!PivotTable1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1211,57 +1158,7 @@
           </a:sp3d>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="51000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="80000">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="93000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="94000"/>
-                    <a:satMod val="135000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="16200000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-            <a:scene3d>
-              <a:camera prst="orthographicFront">
-                <a:rot lat="0" lon="0" rev="0"/>
-              </a:camera>
-              <a:lightRig rig="threePt" dir="t">
-                <a:rot lat="0" lon="0" rev="1200000"/>
-              </a:lightRig>
-            </a:scene3d>
-            <a:sp3d>
-              <a:bevelT w="63500" h="25400"/>
-            </a:sp3d>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -5731,14 +5628,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>605117</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>179293</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>206188</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>26894</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161365</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5753,8 +5650,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1949823" y="3944469"/>
-          <a:ext cx="8045824" cy="1640543"/>
+          <a:off x="1949823" y="3944470"/>
+          <a:ext cx="8045824" cy="1416424"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5946,24 +5843,17 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>έχουμε αρκετά μεγάλη διασπορά. Ωστόσο η ερμηνεία αυτών των αριθμών δεν είναι εύκολη καθώς δεν γνωρίζουμε ακριβώς σε τί </a:t>
+            <a:t>έχουμε αρκετά μεγάλη διασπορά. </a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="el-GR"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="el-GR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>μετράται η παραγωγικότητα </a:t>
-          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -5976,7 +5866,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>4) Και σε αυτό το ερώτημα δεν μπορούμε να κρίνουμε αν θα ήμασταν ευχαριστημένοι ως </a:t>
+            <a:t>4) </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
@@ -5988,7 +5878,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>managers </a:t>
+            <a:t>M</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="el-GR" sz="1100" b="0" i="0" u="none" strike="noStrike">
@@ -6000,23 +5890,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>στην επιχείρηση αυτή , καθώς</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="el-GR"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="el-GR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>δεν γνωρίζουμε τις μονάδες μέτρησης της παραγωγικότητας. Ωστόσο μπορούμε να σχολιάσουμε ότι η δεξιά λοξότητα φανερώνει ότι </a:t>
+            <a:t>πορούμε να σχολιάσουμε ότι η δεξιά λοξότητα φανερώνει ότι </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="el-GR"/>
@@ -6161,13 +6035,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>605117</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>17929</xdr:rowOff>
+      <xdr:rowOff>17930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>493058</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>17929</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>107578</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6182,8 +6056,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3186952" y="3962400"/>
-          <a:ext cx="8780930" cy="1434353"/>
+          <a:off x="3186952" y="3962401"/>
+          <a:ext cx="8780930" cy="1165412"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6440,6 +6314,30 @@
             </a:rPr>
             <a:t> </a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>συνεπώς</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> μπορούμε να πούμε ότι η διασπορά είναι σχετικά μικρή.</a:t>
+          </a:r>
           <a:endParaRPr lang="el-GR" sz="1100" b="0" i="0">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
@@ -6461,10 +6359,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>4) Και σε αυτό το ερώτημα δεν μπορούμε να κρίνουμε αν θα ήμασταν ευχαριστημένοι ως </a:t>
+            <a:t>4) Παρατηρούμε</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+            <a:rPr lang="el-GR" sz="1100" b="0" i="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -6473,109 +6371,8 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>managers </a:t>
+            <a:t> οτι η συμπεριφορά των εργαζομένων είναι συμμετρική και με μικρή διασπορά . Συνεπώς μπορούμε να σχολιάσουμε ότι επικρατεί μια ισορροπία στην εταιρεία.</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="el-GR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>στην επιχείρηση αυτή , καθώς</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="el-GR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="el-GR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>δεν γνωρίζουμε τις μονάδες μέτρησης της παραγωγικότητας. Ωστόσο μπορούμε να σχολιάσουμε ότι η δεξιά λοξότητα φανερώνει ότι </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="el-GR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="el-GR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>οι περισσότεροι εργαζόμενοι βρίσκονται κοντά στο κάτω όριο του εύρους τιμών . Αυτό σημαίνει ότι είτε κάποιοι εργαζόμενοι είναι </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="el-GR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="el-GR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>πολύ εργατικοί , είτε ότι οι περισσότεροι εργαζόμενοι δεν εργάζονται όσο θα έπρεπε.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="el-GR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -6715,10 +6512,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7343,7 +7136,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{974CA893-F45A-4C98-94FD-866836D95870}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9" rowHeaderCaption="Downtime(Rounded Up)">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{974CA893-F45A-4C98-94FD-866836D95870}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9" rowHeaderCaption="Downtime(Rounded Up)">
   <location ref="H1:J9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" showAll="0"/>
@@ -7724,7 +7517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
@@ -7740,16 +7533,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="13"/>
+      <c r="E1" s="18"/>
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
@@ -7767,20 +7560,20 @@
       <c r="B2">
         <v>106</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <f>AVERAGE(B2:B37)</f>
         <v>97.472222222222229</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2">
         <v>1</v>
       </c>
     </row>
@@ -7791,20 +7584,20 @@
       <c r="B3">
         <v>95</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <f>MEDIAN(B2:B37)</f>
         <v>95</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3">
         <v>21</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3">
         <v>22</v>
       </c>
     </row>
@@ -7815,20 +7608,20 @@
       <c r="B4">
         <v>103</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <f>MIN(B2:B37)</f>
         <v>89</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4">
         <v>4</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4">
         <v>26</v>
       </c>
     </row>
@@ -7839,20 +7632,20 @@
       <c r="B5">
         <v>91</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <f>MAX(B2:B37)</f>
         <v>123</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5">
         <v>5</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5">
         <v>31</v>
       </c>
     </row>
@@ -7863,20 +7656,20 @@
       <c r="B6">
         <v>94</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <f>E5-E4</f>
         <v>34</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6">
         <v>3</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6">
         <v>34</v>
       </c>
     </row>
@@ -7887,20 +7680,20 @@
       <c r="B7">
         <v>92</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <f>SKEW(B2:B37)</f>
         <v>1.8832602227658024</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7">
         <v>1</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7">
         <v>35</v>
       </c>
     </row>
@@ -7911,13 +7704,12 @@
       <c r="B8">
         <v>95</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="4"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="3"/>
       <c r="G8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3">
+      <c r="I8">
         <v>35</v>
       </c>
     </row>
@@ -7928,17 +7720,17 @@
       <c r="B9">
         <v>93</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="13"/>
+      <c r="E9" s="18"/>
       <c r="G9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9">
         <v>1</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9">
         <v>36</v>
       </c>
     </row>
@@ -7949,18 +7741,17 @@
       <c r="B10">
         <v>102</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <f>VARA(B2:B37)</f>
         <v>48.884920634920611</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3">
+      <c r="I10">
         <v>36</v>
       </c>
     </row>
@@ -7971,20 +7762,19 @@
       <c r="B11">
         <v>89</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <f>STDEVA(B2:B37)</f>
         <v>6.9917752134147317</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11">
         <v>36</v>
       </c>
-      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -7993,10 +7783,10 @@
       <c r="B12">
         <v>95</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <f>E11/E2</f>
         <v>7.1730951177808588E-2</v>
       </c>
@@ -8008,8 +7798,8 @@
       <c r="B13">
         <v>98</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="4"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -8018,10 +7808,10 @@
       <c r="B14">
         <v>107</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="13"/>
+      <c r="E14" s="18"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -8030,10 +7820,10 @@
       <c r="B15">
         <v>100</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="9">
         <f>_xlfn.QUARTILE.EXC(B2:B37,1)</f>
         <v>93</v>
       </c>
@@ -8045,10 +7835,10 @@
       <c r="B16">
         <v>95</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="9">
         <f>_xlfn.QUARTILE.EXC(B3:B38,2)</f>
         <v>95</v>
       </c>
@@ -8060,10 +7850,10 @@
       <c r="B17">
         <v>101</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="9">
         <f>_xlfn.QUARTILE.EXC(B4:B39,3)</f>
         <v>101</v>
       </c>
@@ -8075,10 +7865,10 @@
       <c r="B18">
         <v>97</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="9">
         <f>E17-E15</f>
         <v>8</v>
       </c>
@@ -8090,10 +7880,10 @@
       <c r="B19">
         <v>93</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="9">
         <f>E15-1.5*E18</f>
         <v>81</v>
       </c>
@@ -8105,10 +7895,10 @@
       <c r="B20">
         <v>92</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="9">
         <f>E17+1.5*E18</f>
         <v>113</v>
       </c>
@@ -8120,7 +7910,7 @@
       <c r="B21">
         <v>123</v>
       </c>
-      <c r="E21" s="4"/>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
@@ -8129,7 +7919,7 @@
       <c r="B22">
         <v>92</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="13" t="s">
         <v>41</v>
       </c>
     </row>
@@ -8140,15 +7930,15 @@
       <c r="B23">
         <v>93</v>
       </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
@@ -8157,15 +7947,15 @@
       <c r="B24">
         <v>94</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
@@ -8174,15 +7964,15 @@
       <c r="B25">
         <v>92</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
@@ -8191,15 +7981,6 @@
       <c r="B26">
         <v>97</v>
       </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
@@ -8208,15 +7989,6 @@
       <c r="B27">
         <v>94</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
@@ -8225,15 +7997,15 @@
       <c r="B28">
         <v>94</v>
       </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
     </row>
     <row r="29" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29">
@@ -8242,15 +8014,15 @@
       <c r="B29">
         <v>102</v>
       </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
@@ -8259,15 +8031,6 @@
       <c r="B30">
         <v>106</v>
       </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
@@ -8276,15 +8039,6 @@
       <c r="B31">
         <v>93</v>
       </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
@@ -8349,7 +8103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E91A2646-07CB-4AA5-AEBA-C0765FC6901B}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -8364,19 +8118,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="13"/>
+      <c r="F1" s="18"/>
       <c r="H1" s="1" t="s">
         <v>36</v>
       </c>
@@ -8398,20 +8152,20 @@
         <f>_xlfn.CEILING.MATH(B2)</f>
         <v>7</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <f>AVERAGE(B2:B37)</f>
         <v>5.4558333333333344</v>
       </c>
       <c r="H2" s="2">
         <v>3</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2">
         <v>1</v>
       </c>
     </row>
@@ -8426,20 +8180,20 @@
         <f t="shared" ref="C3:C37" si="0">_xlfn.CEILING.MATH(B3)</f>
         <v>9</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <f>MEDIAN(B2:B37)</f>
         <v>5.4050000000000002</v>
       </c>
       <c r="H3" s="2">
         <v>4</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3">
         <v>2</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3">
         <v>3</v>
       </c>
     </row>
@@ -8454,20 +8208,20 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <f>MIN(B2:B37)</f>
         <v>2.34</v>
       </c>
       <c r="H4" s="2">
         <v>5</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4">
         <v>7</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4">
         <v>10</v>
       </c>
     </row>
@@ -8482,20 +8236,20 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <f>MAX(B2:B37)</f>
         <v>8.1199999999999992</v>
       </c>
       <c r="H5" s="2">
         <v>6</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5">
         <v>14</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5">
         <v>24</v>
       </c>
     </row>
@@ -8510,20 +8264,20 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <f>F5-F4</f>
         <v>5.7799999999999994</v>
       </c>
       <c r="H6" s="2">
         <v>7</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6">
         <v>9</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6">
         <v>33</v>
       </c>
     </row>
@@ -8538,20 +8292,20 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <f>SKEW(B2:B37)</f>
         <v>-0.125645788636674</v>
       </c>
       <c r="H7" s="2">
         <v>8</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7">
         <v>2</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7">
         <v>35</v>
       </c>
     </row>
@@ -8566,15 +8320,15 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="4"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="3"/>
       <c r="H8" s="2">
         <v>9</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8">
         <v>36</v>
       </c>
     </row>
@@ -8589,17 +8343,16 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="13"/>
+      <c r="F9" s="18"/>
       <c r="H9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9">
         <v>36</v>
       </c>
-      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -8612,10 +8365,10 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <f>VARA(B2:B37)</f>
         <v>1.3484821428571194</v>
       </c>
@@ -8631,10 +8384,10 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <f>STDEVA(B2:B37)</f>
         <v>1.1612416384444366</v>
       </c>
@@ -8650,10 +8403,10 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <f>F11/F2</f>
         <v>0.21284404553739478</v>
       </c>
@@ -8669,8 +8422,8 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="4"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -8683,10 +8436,10 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="13"/>
+      <c r="F14" s="18"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -8699,10 +8452,10 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <f>_xlfn.QUARTILE.EXC(B2:B37,1)</f>
         <v>4.7824999999999998</v>
       </c>
@@ -8718,10 +8471,10 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <f>_xlfn.QUARTILE.EXC(B3:B38,2)</f>
         <v>5.36</v>
       </c>
@@ -8737,10 +8490,10 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <f>_xlfn.QUARTILE.EXC(B4:B39,3)</f>
         <v>6.1</v>
       </c>
@@ -8756,10 +8509,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <f>F17-F15</f>
         <v>1.3174999999999999</v>
       </c>
@@ -8775,10 +8528,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <f>F15-1.5*F18</f>
         <v>2.8062499999999999</v>
       </c>
@@ -8794,10 +8547,10 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <f>F17+1.5*F18</f>
         <v>8.0762499999999999</v>
       </c>
@@ -8825,7 +8578,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="13" t="s">
         <v>41</v>
       </c>
     </row>
@@ -8852,7 +8605,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="13" t="s">
         <v>41</v>
       </c>
     </row>
@@ -9037,802 +8790,802 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="14">
+      <c r="A2">
         <v>1947</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2">
         <v>37.6</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="14">
+      <c r="A3">
         <v>1948</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3">
         <v>37.1</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <f>(B2+B3+B4)/3</f>
         <v>37.5</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <f>B3-C3</f>
         <v>-0.39999999999999858</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="14">
+      <c r="A4">
         <v>1949</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4">
         <v>37.799999999999997</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <f t="shared" ref="C4:C50" si="0">(B3+B4+B5)/3</f>
         <v>37.6</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <f t="shared" ref="D4:D50" si="1">B4-C4</f>
         <v>0.19999999999999574</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="14">
+      <c r="A5">
         <v>1950</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5">
         <v>37.9</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <f t="shared" si="0"/>
         <v>37.333333333333329</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <f t="shared" si="1"/>
         <v>0.56666666666666998</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
+      <c r="A6">
         <v>1951</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6">
         <v>36.299999999999997</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <f t="shared" si="0"/>
         <v>36.999999999999993</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <f t="shared" si="1"/>
         <v>-0.69999999999999574</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="14">
+      <c r="A7">
         <v>1952</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7">
         <v>36.799999999999997</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <f t="shared" si="0"/>
         <v>36.333333333333336</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <f t="shared" si="1"/>
         <v>0.46666666666666146</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="14">
+      <c r="A8">
         <v>1953</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8">
         <v>35.9</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <f t="shared" si="0"/>
         <v>36.599999999999994</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <f t="shared" si="1"/>
         <v>-0.69999999999999574</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="14">
+      <c r="A9">
         <v>1954</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9">
         <v>37.1</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <f t="shared" si="0"/>
         <v>36.43333333333333</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <f t="shared" si="1"/>
         <v>0.6666666666666714</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="14">
+      <c r="A10">
         <v>1955</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10">
         <v>36.299999999999997</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <f t="shared" si="0"/>
         <v>36.4</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <f t="shared" si="1"/>
         <v>-0.10000000000000142</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="14">
+      <c r="A11">
         <v>1956</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11">
         <v>35.799999999999997</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <f t="shared" si="0"/>
         <v>35.733333333333327</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <f t="shared" si="1"/>
         <v>6.6666666666669983E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="14">
+      <c r="A12">
         <v>1957</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12">
         <v>35.1</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <f t="shared" si="0"/>
         <v>35.433333333333337</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <f t="shared" si="1"/>
         <v>-0.3333333333333357</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="14">
+      <c r="A13">
         <v>1958</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13">
         <v>35.4</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <f t="shared" si="0"/>
         <v>35.6</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <f t="shared" si="1"/>
         <v>-0.20000000000000284</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="14">
+      <c r="A14">
         <v>1959</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14">
         <v>36.299999999999997</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <f t="shared" si="0"/>
         <v>36.033333333333331</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <f t="shared" si="1"/>
         <v>0.26666666666666572</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="14">
+      <c r="A15">
         <v>1960</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15">
         <v>36.4</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <f t="shared" si="0"/>
         <v>36.699999999999996</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <f t="shared" si="1"/>
         <v>-0.29999999999999716</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="14">
+      <c r="A16">
         <v>1961</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16">
         <v>37.4</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <f t="shared" si="1"/>
         <v>0.73333333333333428</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="14">
+      <c r="A17">
         <v>1962</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17">
         <v>36.200000000000003</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <f t="shared" si="0"/>
         <v>37.266666666666666</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <f t="shared" si="1"/>
         <v>-1.0666666666666629</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="14">
+      <c r="A18">
         <v>1963</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18">
         <v>38.200000000000003</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <f t="shared" si="0"/>
         <v>36.833333333333336</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <f t="shared" si="1"/>
         <v>1.3666666666666671</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="14">
+      <c r="A19">
         <v>1964</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19">
         <v>36.1</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <f t="shared" si="0"/>
         <v>36.633333333333333</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <f t="shared" si="1"/>
         <v>-0.53333333333333144</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="14">
+      <c r="A20">
         <v>1965</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20">
         <v>35.6</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <f t="shared" si="0"/>
         <v>35.533333333333331</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <f t="shared" si="1"/>
         <v>6.6666666666669983E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="14">
+      <c r="A21">
         <v>1966</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21">
         <v>34.9</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <f t="shared" si="0"/>
         <v>35.1</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <f t="shared" si="1"/>
         <v>-0.20000000000000284</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="14">
+      <c r="A22">
         <v>1967</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22">
         <v>34.799999999999997</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <f t="shared" si="0"/>
         <v>34.833333333333329</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <f t="shared" si="1"/>
         <v>-3.3333333333331439E-2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="14">
+      <c r="A23">
         <v>1968</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23">
         <v>34.799999999999997</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <f t="shared" si="0"/>
         <v>34.833333333333336</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <f t="shared" si="1"/>
         <v>-3.3333333333338544E-2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="14">
+      <c r="A24">
         <v>1969</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24">
         <v>34.9</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <f t="shared" si="0"/>
         <v>35.566666666666663</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <f t="shared" si="1"/>
         <v>-0.6666666666666643</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="14">
+      <c r="A25">
         <v>1970</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25">
         <v>37</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <f t="shared" si="0"/>
         <v>35.800000000000004</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <f t="shared" si="1"/>
         <v>1.1999999999999957</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="14">
+      <c r="A26">
         <v>1971</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26">
         <v>35.5</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <f t="shared" si="0"/>
         <v>36.133333333333333</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <f t="shared" si="1"/>
         <v>-0.63333333333333286</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="14">
+      <c r="A27">
         <v>1972</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27">
         <v>35.9</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <f t="shared" si="0"/>
         <v>35.666666666666664</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <f t="shared" si="1"/>
         <v>0.23333333333333428</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="14">
+      <c r="A28">
         <v>1973</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28">
         <v>35.6</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <f t="shared" si="0"/>
         <v>35.666666666666664</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <f t="shared" si="1"/>
         <v>-6.6666666666662877E-2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="14">
+      <c r="A29">
         <v>1974</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29">
         <v>35.5</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <f t="shared" si="0"/>
         <v>35.6</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <f t="shared" si="1"/>
         <v>-0.10000000000000142</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="14">
+      <c r="A30">
         <v>1975</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30">
         <v>35.700000000000003</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <f t="shared" si="0"/>
         <v>35.666666666666664</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <f t="shared" si="1"/>
         <v>3.3333333333338544E-2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="14">
+      <c r="A31">
         <v>1976</v>
       </c>
-      <c r="B31" s="14">
+      <c r="B31">
         <v>35.799999999999997</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <f t="shared" si="0"/>
         <v>35.93333333333333</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <f t="shared" si="1"/>
         <v>-0.13333333333333286</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="14">
+      <c r="A32">
         <v>1977</v>
       </c>
-      <c r="B32" s="14">
+      <c r="B32">
         <v>36.299999999999997</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <f t="shared" si="0"/>
         <v>36.299999999999997</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="14">
+      <c r="A33">
         <v>1978</v>
       </c>
-      <c r="B33" s="14">
+      <c r="B33">
         <v>36.799999999999997</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <f t="shared" si="0"/>
         <v>36.533333333333331</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="4">
         <f t="shared" si="1"/>
         <v>0.26666666666666572</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="14">
+      <c r="A34">
         <v>1979</v>
       </c>
-      <c r="B34" s="14">
+      <c r="B34">
         <v>36.5</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <f t="shared" si="0"/>
         <v>37.266666666666666</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="4">
         <f t="shared" si="1"/>
         <v>-0.76666666666666572</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="14">
+      <c r="A35">
         <v>1980</v>
       </c>
-      <c r="B35" s="14">
+      <c r="B35">
         <v>38.5</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <f t="shared" si="0"/>
         <v>37.300000000000004</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="4">
         <f t="shared" si="1"/>
         <v>1.1999999999999957</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="14">
+      <c r="A36">
         <v>1981</v>
       </c>
-      <c r="B36" s="14">
+      <c r="B36">
         <v>36.9</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <f t="shared" si="0"/>
         <v>37.800000000000004</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="4">
         <f t="shared" si="1"/>
         <v>-0.90000000000000568</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="14">
+      <c r="A37">
         <v>1982</v>
       </c>
-      <c r="B37" s="14">
+      <c r="B37">
         <v>38</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <f t="shared" si="0"/>
         <v>37.700000000000003</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="4">
         <f t="shared" si="1"/>
         <v>0.29999999999999716</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="14">
+      <c r="A38">
         <v>1983</v>
       </c>
-      <c r="B38" s="14">
+      <c r="B38">
         <v>38.200000000000003</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <f t="shared" si="0"/>
         <v>38.166666666666664</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="4">
         <f t="shared" si="1"/>
         <v>3.3333333333338544E-2</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="14">
+      <c r="A39">
         <v>1984</v>
       </c>
-      <c r="B39" s="14">
+      <c r="B39">
         <v>38.299999999999997</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <f t="shared" si="0"/>
         <v>38.466666666666669</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="4">
         <f t="shared" si="1"/>
         <v>-0.1666666666666714</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="14">
+      <c r="A40">
         <v>1985</v>
       </c>
-      <c r="B40" s="14">
+      <c r="B40">
         <v>38.9</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="3">
         <f t="shared" si="0"/>
         <v>38.799999999999997</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="4">
         <f t="shared" si="1"/>
         <v>0.10000000000000142</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="14">
+      <c r="A41">
         <v>1986</v>
       </c>
-      <c r="B41" s="14">
+      <c r="B41">
         <v>39.200000000000003</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="3">
         <f t="shared" si="0"/>
         <v>39.133333333333333</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="4">
         <f t="shared" si="1"/>
         <v>6.6666666666669983E-2</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="14">
+      <c r="A42">
         <v>1987</v>
       </c>
-      <c r="B42" s="14">
+      <c r="B42">
         <v>39.299999999999997</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="3">
         <f t="shared" si="0"/>
         <v>39.333333333333336</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="4">
         <f t="shared" si="1"/>
         <v>-3.3333333333338544E-2</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="14">
+      <c r="A43">
         <v>1988</v>
       </c>
-      <c r="B43" s="14">
+      <c r="B43">
         <v>39.5</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="3">
         <f t="shared" si="0"/>
         <v>39.633333333333333</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="4">
         <f t="shared" si="1"/>
         <v>-0.13333333333333286</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="14">
+      <c r="A44">
         <v>1989</v>
       </c>
-      <c r="B44" s="14">
+      <c r="B44">
         <v>40.1</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="3">
         <f t="shared" si="0"/>
         <v>39.733333333333327</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="4">
         <f t="shared" si="1"/>
         <v>0.36666666666667425</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="14">
+      <c r="A45">
         <v>1990</v>
       </c>
-      <c r="B45" s="14">
+      <c r="B45">
         <v>39.6</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="3">
         <f t="shared" si="0"/>
         <v>39.800000000000004</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="4">
         <f t="shared" si="1"/>
         <v>-0.20000000000000284</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="14">
+      <c r="A46">
         <v>1991</v>
       </c>
-      <c r="B46" s="14">
+      <c r="B46">
         <v>39.700000000000003</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="3">
         <f t="shared" si="0"/>
         <v>39.900000000000006</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="4">
         <f t="shared" si="1"/>
         <v>-0.20000000000000284</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="14">
+      <c r="A47">
         <v>1992</v>
       </c>
-      <c r="B47" s="14">
+      <c r="B47">
         <v>40.4</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="3">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="4">
         <f t="shared" si="1"/>
         <v>-0.60000000000000142</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="14">
+      <c r="A48">
         <v>1993</v>
       </c>
-      <c r="B48" s="14">
+      <c r="B48">
         <v>42.9</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="3">
         <f t="shared" si="0"/>
         <v>41.966666666666669</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="4">
         <f t="shared" si="1"/>
         <v>0.93333333333333002</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="14">
+      <c r="A49">
         <v>1994</v>
       </c>
-      <c r="B49" s="14">
+      <c r="B49">
         <v>42.6</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="3">
         <f t="shared" si="0"/>
         <v>42.533333333333331</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="4">
         <f t="shared" si="1"/>
         <v>6.6666666666669983E-2</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="14">
+      <c r="A50">
         <v>1995</v>
       </c>
-      <c r="B50" s="14">
+      <c r="B50">
         <v>42.1</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="3">
         <f t="shared" si="0"/>
         <v>42.4</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="4">
         <f t="shared" si="1"/>
         <v>-0.29999999999999716</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="14">
+      <c r="A51">
         <v>1996</v>
       </c>
-      <c r="B51" s="14">
+      <c r="B51">
         <v>42.5</v>
       </c>
     </row>

--- a/semester A/Data Analysis/Assignments/Koutsompinas-Assignment-1-Exercise-2&3.xlsx
+++ b/semester A/Data Analysis/Assignments/Koutsompinas-Assignment-1-Exercise-2&3.xlsx
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ppapa\OneDrive\Υπολογιστής\MSC\semester A\Data Analysis\Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C773CB-700D-4A95-BACB-4772EB52E082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C6737D-DB95-4FE5-894E-80592A64B270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercise 2 Productivity" sheetId="1" r:id="rId1"/>
     <sheet name="Exercise 2 Downtime" sheetId="2" r:id="rId2"/>
     <sheet name="Exercise 3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Exercise 2 Productivity'!$B$2:$B$37</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Exercise 2 Productivity'!$B$2:$B$37</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Exercise 2 Downtime'!$B$2:$B$37</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Exercise 2 Downtime'!$B$2:$B$37</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
-  <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
-    <pivotCache cacheId="1" r:id="rId5"/>
-  </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,8 +40,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
   <si>
     <t>Worker</t>
   </si>
@@ -48,39 +72,6 @@
   </si>
   <si>
     <t>Downtime Hour</t>
-  </si>
-  <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>91-95</t>
-  </si>
-  <si>
-    <t>96-100</t>
-  </si>
-  <si>
-    <t>101-105</t>
-  </si>
-  <si>
-    <t>106-110</t>
-  </si>
-  <si>
-    <t>111-115</t>
-  </si>
-  <si>
-    <t>121-126</t>
-  </si>
-  <si>
-    <t>116-120</t>
-  </si>
-  <si>
-    <t>&gt;126</t>
-  </si>
-  <si>
-    <t>&lt;91</t>
   </si>
   <si>
     <t>RoundUp of Downtime</t>
@@ -140,18 +131,6 @@
     <t>outlier upper</t>
   </si>
   <si>
-    <t>Συχνότητα</t>
-  </si>
-  <si>
-    <t>Αθροιστική συχνότητα</t>
-  </si>
-  <si>
-    <t>Αθροιστική Συχνότητα</t>
-  </si>
-  <si>
-    <t>Downtime(Rounded Up)</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -165,6 +144,21 @@
   </si>
   <si>
     <t>Ερωτήματα</t>
+  </si>
+  <si>
+    <t>Συχνότητες</t>
+  </si>
+  <si>
+    <t>Κλάσεις</t>
+  </si>
+  <si>
+    <t>Σχ.Συχνότητες</t>
+  </si>
+  <si>
+    <t>&gt;120</t>
+  </si>
+  <si>
+    <t>Αθρ. Σχ. Συχνότητες</t>
   </si>
 </sst>
 </file>
@@ -207,7 +201,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,6 +211,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,12 +275,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -307,6 +303,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -338,217 +337,68 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[Koutsompinas-Assignment-1-Exercise-2&amp;3.xlsx]Exercise 2 Productivity!PivotTable1</c:name>
-    <c:fmtId val="8"/>
-  </c:pivotSource>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:gradFill rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent1">
-                  <a:shade val="51000"/>
-                  <a:satMod val="130000"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="el-GR"/>
+              <a:t>Διάγραμμα</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR" baseline="0"/>
+              <a:t> συχνοτήτων</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
-              </a:gs>
-              <a:gs pos="80000">
-                <a:schemeClr val="accent1">
-                  <a:shade val="93000"/>
-                  <a:satMod val="130000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent1">
-                  <a:shade val="94000"/>
-                  <a:satMod val="135000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="16200000" scaled="0"/>
-          </a:gradFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:ln w="34925" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:shade val="51000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="80000">
-                  <a:schemeClr val="accent2">
-                    <a:shade val="93000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:shade val="94000"/>
-                    <a:satMod val="135000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="16200000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-            <a:scene3d>
-              <a:camera prst="orthographicFront">
-                <a:rot lat="0" lon="0" rev="0"/>
-              </a:camera>
-              <a:lightRig rig="threePt" dir="t">
-                <a:rot lat="0" lon="0" rev="1200000"/>
-              </a:lightRig>
-            </a:scene3d>
-            <a:sp3d>
-              <a:bevelT w="63500" h="25400"/>
-            </a:sp3d>
-          </c:spPr>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-    </c:pivotFmts>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -560,130 +410,61 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Exercise 2 Productivity'!$H$1</c:f>
+              <c:f>'Exercise 2 Productivity'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Συχνότητα</c:v>
+                  <c:v>Σχ.Συχνότητες</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="51000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="80000">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="93000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="94000"/>
-                    <a:satMod val="135000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="16200000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-            <a:scene3d>
-              <a:camera prst="orthographicFront">
-                <a:rot lat="0" lon="0" rev="0"/>
-              </a:camera>
-              <a:lightRig rig="threePt" dir="t">
-                <a:rot lat="0" lon="0" rev="1200000"/>
-              </a:lightRig>
-            </a:scene3d>
-            <a:sp3d>
-              <a:bevelT w="63500" h="25400"/>
-            </a:sp3d>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Exercise 2 Productivity'!$G$2:$G$11</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>&lt;91</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>91-95</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>96-100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>101-105</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>106-110</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>111-115</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>116-120</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>121-126</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>&gt;126</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Exercise 2 Productivity'!$H$2:$H$11</c:f>
+              <c:f>'Exercise 2 Productivity'!$I$2:$I$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2.7777777777777776E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21</c:v>
+                  <c:v>0.58333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>0.1111111111111111</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>0.1388888888888889</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>2.7777777777777776E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>2.7777777777777776E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A8F9-4D7D-837F-25905CC6EA5D}"/>
+              <c16:uniqueId val="{00000000-BB46-421E-B9FD-B645A494E902}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -696,8 +477,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="61318207"/>
-        <c:axId val="61322527"/>
+        <c:axId val="1836238095"/>
+        <c:axId val="110579695"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -707,150 +488,56 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Exercise 2 Productivity'!$I$1</c:f>
+              <c:f>'Exercise 2 Productivity'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Αθροιστική συχνότητα</c:v>
+                  <c:v>Αθρ. Σχ. Συχνότητες</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="80000">
-                    <a:schemeClr val="accent2">
-                      <a:shade val="93000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront">
-                  <a:rot lat="0" lon="0" rev="0"/>
-                </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
-              </a:sp3d>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Exercise 2 Productivity'!$G$2:$G$11</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>&lt;91</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>91-95</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>96-100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>101-105</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>106-110</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>111-115</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>116-120</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>121-126</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>&gt;126</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Exercise 2 Productivity'!$I$2:$I$11</c:f>
+              <c:f>'Exercise 2 Productivity'!$J$2:$J$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>2.7777777777777776E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61111111111111116</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72222222222222232</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86111111111111116</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94444444444444453</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97222222222222232</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97222222222222232</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -858,7 +545,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A8F9-4D7D-837F-25905CC6EA5D}"/>
+              <c16:uniqueId val="{00000001-BB46-421E-B9FD-B645A494E902}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -872,27 +559,26 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="61318207"/>
-        <c:axId val="61322527"/>
+        <c:axId val="509107103"/>
+        <c:axId val="509110463"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="61318207"/>
+        <c:axId val="1836238095"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="54000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -906,8 +592,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -918,7 +605,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61322527"/>
+        <c:crossAx val="110579695"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -926,7 +613,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61322527"/>
+        <c:axId val="110579695"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -936,9 +623,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -946,7 +633,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -964,8 +651,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -976,10 +664,68 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61318207"/>
+        <c:crossAx val="1836238095"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="509110463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="509107103"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="509107103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="509110463"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -989,7 +735,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1005,8 +751,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1030,28 +777,17 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1070,22 +806,6 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
 </c:chartSpace>
 </file>
 
@@ -1102,217 +822,64 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[Koutsompinas-Assignment-1-Exercise-2&amp;3.xlsx]Exercise 2 Downtime!PivotTable1</c:name>
-    <c:fmtId val="0"/>
-  </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="el-GR"/>
+              <a:t>Διάγραμμα Συχνοτήτων</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:gradFill rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent1">
-                  <a:shade val="51000"/>
-                  <a:satMod val="130000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="80000">
-                <a:schemeClr val="accent1">
-                  <a:shade val="93000"/>
-                  <a:satMod val="130000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent1">
-                  <a:shade val="94000"/>
-                  <a:satMod val="135000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="16200000" scaled="0"/>
-          </a:gradFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:ln w="34925" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:shade val="51000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="80000">
-                  <a:schemeClr val="accent2">
-                    <a:shade val="93000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:shade val="94000"/>
-                    <a:satMod val="135000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="16200000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-            <a:scene3d>
-              <a:camera prst="orthographicFront">
-                <a:rot lat="0" lon="0" rev="0"/>
-              </a:camera>
-              <a:lightRig rig="threePt" dir="t">
-                <a:rot lat="0" lon="0" rev="1200000"/>
-              </a:lightRig>
-            </a:scene3d>
-            <a:sp3d>
-              <a:bevelT w="63500" h="25400"/>
-            </a:sp3d>
-          </c:spPr>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-    </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1324,124 +891,58 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Exercise 2 Downtime'!$I$1</c:f>
+              <c:f>'Exercise 2 Downtime'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Συχνότητα</c:v>
+                  <c:v>Σχ.Συχνότητες</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="51000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="80000">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="93000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="94000"/>
-                    <a:satMod val="135000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="16200000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-            <a:scene3d>
-              <a:camera prst="orthographicFront">
-                <a:rot lat="0" lon="0" rev="0"/>
-              </a:camera>
-              <a:lightRig rig="threePt" dir="t">
-                <a:rot lat="0" lon="0" rev="1200000"/>
-              </a:lightRig>
-            </a:scene3d>
-            <a:sp3d>
-              <a:bevelT w="63500" h="25400"/>
-            </a:sp3d>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Exercise 2 Downtime'!$H$2:$H$9</c:f>
-              <c:strCache>
+          <c:val>
+            <c:numRef>
+              <c:f>'Exercise 2 Downtime'!$J$2:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>2.7777777777777776E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>5.5555555555555552E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>0.19444444444444445</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>0.3888888888888889</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>5.5555555555555552E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Exercise 2 Downtime'!$I$2:$I$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>2.7777777777777776E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-22AA-4D21-A5E1-23412A3931DA}"/>
+              <c16:uniqueId val="{00000000-B337-4722-8E26-921EE8BD29F5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1453,9 +954,9 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:axId val="1402964783"/>
-        <c:axId val="1402966223"/>
+        <c:gapWidth val="315"/>
+        <c:axId val="142452255"/>
+        <c:axId val="142451295"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1465,138 +966,53 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Exercise 2 Downtime'!$J$1</c:f>
+              <c:f>'Exercise 2 Downtime'!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Αθροιστική Συχνότητα</c:v>
+                  <c:v>Αθρ. Σχ. Συχνότητες</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="80000">
-                    <a:schemeClr val="accent2">
-                      <a:shade val="93000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront">
-                  <a:rot lat="0" lon="0" rev="0"/>
-                </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
-              </a:sp3d>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Exercise 2 Downtime'!$H$2:$H$9</c:f>
-              <c:strCache>
+          <c:val>
+            <c:numRef>
+              <c:f>'Exercise 2 Downtime'!$K$2:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>2.7777777777777776E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>0.27777777777777779</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>0.66666666666666674</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>0.91666666666666674</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>0.97222222222222232</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Exercise 2 Downtime'!$J$2:$J$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1604,7 +1020,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-22AA-4D21-A5E1-23412A3931DA}"/>
+              <c16:uniqueId val="{00000001-B337-4722-8E26-921EE8BD29F5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1618,27 +1034,26 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1402964783"/>
-        <c:axId val="1402966223"/>
+        <c:axId val="580322367"/>
+        <c:axId val="580317087"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1402964783"/>
+        <c:axId val="142452255"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="54000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1652,8 +1067,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1664,7 +1080,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1402966223"/>
+        <c:crossAx val="142451295"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1672,7 +1088,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1402966223"/>
+        <c:axId val="142451295"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1682,9 +1098,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1692,7 +1108,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1710,8 +1126,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1722,10 +1139,68 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1402964783"/>
+        <c:crossAx val="142452255"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="580317087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="580322367"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="580322367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="580317087"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1735,12 +1210,17 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+              <a:alpha val="98000"/>
+            </a:schemeClr>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -1751,8 +1231,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1776,28 +1257,17 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1816,22 +1286,6 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
 </c:chartSpace>
 </file>
 
@@ -3309,6 +2763,130 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Box And Whiskers</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Box And Whiskers</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{458E770B-9DDC-4245-A227-31A1CF2E1C01}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling min="80"/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Box And Whiskers</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Box And Whiskers</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{1DFAC333-08F0-4211-875C-52CD6290C292}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling min="2"/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3469,82 +3047,157 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="328">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="900"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -3560,6 +3213,529 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -3568,20 +3744,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -3590,13 +3766,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3608,10 +3784,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -3620,17 +3796,16 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -3648,18 +3823,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3669,129 +3847,130 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="95000"/>
-              <a:lumOff val="5000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="75000"/>
-              <a:lumOff val="25000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-      </a:gradFill>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="75000"/>
             <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -3804,13 +3983,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -3819,13 +3999,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -3833,7 +4014,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -3846,21 +4027,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -3868,14 +4039,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3887,19 +4058,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3915,6 +4079,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3923,8 +4088,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3934,29 +4100,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="85000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-      </a:gradFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:round/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3965,8 +4121,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3978,86 +4135,87 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="328">
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="900"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -4073,6 +4231,529 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -4081,20 +4762,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -4103,13 +4784,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4121,10 +4802,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -4133,17 +4814,16 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -4161,18 +4841,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4185,126 +4868,128 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="95000"/>
-              <a:lumOff val="5000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="75000"/>
-              <a:lumOff val="25000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-      </a:gradFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="75000"/>
             <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -4317,13 +5002,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -4332,13 +5018,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -4346,7 +5033,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -4359,16 +5046,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4381,14 +5069,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4400,19 +5088,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -4428,6 +5109,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -4436,8 +5118,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4450,24 +5133,15 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="85000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-      </a:gradFill>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -4478,8 +5152,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4491,11 +5166,17 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="244">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5015,7 +5696,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5533,42 +6214,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>35859</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>219636</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B51F5F5-4AD9-9079-688A-86ED2592836D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -5628,14 +6273,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>605117</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>-1</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9768</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>206188</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>161365</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171134</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5650,8 +6295,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1949823" y="3944470"/>
-          <a:ext cx="8045824" cy="1416424"/>
+          <a:off x="1943502" y="4278922"/>
+          <a:ext cx="7758378" cy="1460674"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5989,30 +6634,103 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>588799</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>83211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1230923</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>156308</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E46E5CA1-FF9C-AE7A-BEF9-7F607C6EBF84}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4262030" y="1753749"/>
+              <a:ext cx="4159047" cy="2300482"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>6</xdr:colOff>
+      <xdr:colOff>29308</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>304806</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:colOff>576385</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B1E71F4-8780-7779-B2F6-4D4F17A784F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26C7E19F-C0C6-B9B8-8C70-1618D9846079}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6024,12 +6742,17 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -6434,6 +7157,120 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>551327</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="7" name="Chart 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20DABCD5-945D-7AF6-83AF-EA565BA1B445}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5275727" y="1524001"/>
+              <a:ext cx="3016625" cy="2241175"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>49306</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>295835</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>170330</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A663456-1090-174A-09CF-8824E91952A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6512,722 +7349,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="kostas koutsompinas" refreshedDate="45575.595396296296" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="36" xr:uid="{AEA2A130-D7BE-417C-BA38-4DDACE181DCD}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:B37" sheet="Exercise 2 Productivity"/>
-  </cacheSource>
-  <cacheFields count="3">
-    <cacheField name="Worker" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="36"/>
-    </cacheField>
-    <cacheField name="Productivity" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="89" maxValue="123" count="16">
-        <n v="106"/>
-        <n v="95"/>
-        <n v="103"/>
-        <n v="91"/>
-        <n v="94"/>
-        <n v="92"/>
-        <n v="93"/>
-        <n v="102"/>
-        <n v="89"/>
-        <n v="98"/>
-        <n v="107"/>
-        <n v="100"/>
-        <n v="101"/>
-        <n v="97"/>
-        <n v="123"/>
-        <n v="114"/>
-      </sharedItems>
-      <fieldGroup base="1">
-        <rangePr autoStart="0" autoEnd="0" startNum="91" endNum="126" groupInterval="5"/>
-        <groupItems count="9">
-          <s v="&lt;91"/>
-          <s v="91-95"/>
-          <s v="96-100"/>
-          <s v="101-105"/>
-          <s v="106-110"/>
-          <s v="111-115"/>
-          <s v="116-120"/>
-          <s v="121-126"/>
-          <s v="&gt;126"/>
-        </groupItems>
-      </fieldGroup>
-    </cacheField>
-    <cacheField name="Downtime Hour" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.34" maxValue="8.1199999999999992" count="33">
-        <n v="6.41"/>
-        <n v="8.1199999999999992"/>
-        <n v="5.36"/>
-        <n v="3.51"/>
-        <n v="5.05"/>
-        <n v="5.15"/>
-        <n v="6.77"/>
-        <n v="5.45"/>
-        <n v="6.14"/>
-        <n v="7.02"/>
-        <n v="5.84"/>
-        <n v="6.42"/>
-        <n v="6.5"/>
-        <n v="7.86"/>
-        <n v="5.56"/>
-        <n v="6.1"/>
-        <n v="4.4000000000000004"/>
-        <n v="4.42"/>
-        <n v="6.47"/>
-        <n v="5.81"/>
-        <n v="4.71"/>
-        <n v="5.03"/>
-        <n v="5.35"/>
-        <n v="2.34"/>
-        <n v="4.21"/>
-        <n v="5"/>
-        <n v="5.46"/>
-        <n v="5.28"/>
-        <n v="5.71"/>
-        <n v="4.24"/>
-        <n v="6.07"/>
-        <n v="5.34"/>
-        <n v="3.74"/>
-      </sharedItems>
-      <fieldGroup base="2">
-        <rangePr autoStart="0" autoEnd="0" startNum="2.5" endNum="9.49"/>
-        <groupItems count="9">
-          <s v="&lt;2.5"/>
-          <s v="2.5-3.5"/>
-          <s v="3.5-4.5"/>
-          <s v="4.5-5.5"/>
-          <s v="5.5-6.5"/>
-          <s v="6.5-7.5"/>
-          <s v="7.5-8.5"/>
-          <s v="8.5-9.5"/>
-          <s v="&gt;9.5"/>
-        </groupItems>
-      </fieldGroup>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="kostas koutsompinas" refreshedDate="45576.622131018521" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="36" xr:uid="{5F816C65-0CA0-44F9-9059-8CE1D0DBB93C}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:C37" sheet="Exercise 2 Downtime"/>
-  </cacheSource>
-  <cacheFields count="3">
-    <cacheField name="Worker" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="36"/>
-    </cacheField>
-    <cacheField name="Downtime Hour" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.34" maxValue="8.1199999999999992"/>
-    </cacheField>
-    <cacheField name="RoundUp of Downtime" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="9" count="7">
-        <n v="7"/>
-        <n v="9"/>
-        <n v="6"/>
-        <n v="4"/>
-        <n v="8"/>
-        <n v="5"/>
-        <n v="3"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="36">
-  <r>
-    <n v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="3"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="4"/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="7"/>
-    <x v="1"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <n v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <n v="9"/>
-    <x v="7"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <n v="10"/>
-    <x v="8"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <n v="11"/>
-    <x v="1"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <n v="12"/>
-    <x v="9"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <n v="13"/>
-    <x v="10"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <n v="14"/>
-    <x v="11"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <n v="15"/>
-    <x v="1"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <n v="16"/>
-    <x v="12"/>
-    <x v="15"/>
-  </r>
-  <r>
-    <n v="17"/>
-    <x v="13"/>
-    <x v="16"/>
-  </r>
-  <r>
-    <n v="18"/>
-    <x v="6"/>
-    <x v="17"/>
-  </r>
-  <r>
-    <n v="19"/>
-    <x v="5"/>
-    <x v="18"/>
-  </r>
-  <r>
-    <n v="20"/>
-    <x v="14"/>
-    <x v="17"/>
-  </r>
-  <r>
-    <n v="21"/>
-    <x v="5"/>
-    <x v="15"/>
-  </r>
-  <r>
-    <n v="22"/>
-    <x v="6"/>
-    <x v="19"/>
-  </r>
-  <r>
-    <n v="23"/>
-    <x v="4"/>
-    <x v="20"/>
-  </r>
-  <r>
-    <n v="24"/>
-    <x v="5"/>
-    <x v="21"/>
-  </r>
-  <r>
-    <n v="25"/>
-    <x v="13"/>
-    <x v="22"/>
-  </r>
-  <r>
-    <n v="26"/>
-    <x v="4"/>
-    <x v="23"/>
-  </r>
-  <r>
-    <n v="27"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="28"/>
-    <x v="7"/>
-    <x v="24"/>
-  </r>
-  <r>
-    <n v="29"/>
-    <x v="0"/>
-    <x v="25"/>
-  </r>
-  <r>
-    <n v="30"/>
-    <x v="6"/>
-    <x v="26"/>
-  </r>
-  <r>
-    <n v="31"/>
-    <x v="15"/>
-    <x v="27"/>
-  </r>
-  <r>
-    <n v="32"/>
-    <x v="12"/>
-    <x v="28"/>
-  </r>
-  <r>
-    <n v="33"/>
-    <x v="1"/>
-    <x v="29"/>
-  </r>
-  <r>
-    <n v="34"/>
-    <x v="3"/>
-    <x v="30"/>
-  </r>
-  <r>
-    <n v="35"/>
-    <x v="1"/>
-    <x v="31"/>
-  </r>
-  <r>
-    <n v="36"/>
-    <x v="1"/>
-    <x v="32"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="36">
-  <r>
-    <n v="1"/>
-    <n v="6.41"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="2"/>
-    <n v="8.1199999999999992"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="3"/>
-    <n v="5.36"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="4"/>
-    <n v="3.51"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="5.05"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="6"/>
-    <n v="5.15"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="7"/>
-    <n v="6.77"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="8"/>
-    <n v="5.45"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="9"/>
-    <n v="6.14"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="10"/>
-    <n v="7.02"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="11"/>
-    <n v="5.84"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="12"/>
-    <n v="6.42"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="13"/>
-    <n v="6.5"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="14"/>
-    <n v="7.86"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="15"/>
-    <n v="5.56"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="16"/>
-    <n v="6.1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="17"/>
-    <n v="4.4000000000000004"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="18"/>
-    <n v="4.42"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="19"/>
-    <n v="6.47"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="20"/>
-    <n v="4.42"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="21"/>
-    <n v="6.1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="22"/>
-    <n v="5.81"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="23"/>
-    <n v="4.71"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="24"/>
-    <n v="5.03"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="25"/>
-    <n v="5.35"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="26"/>
-    <n v="2.34"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <n v="27"/>
-    <n v="5.05"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="28"/>
-    <n v="4.21"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="29"/>
-    <n v="5"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="30"/>
-    <n v="5.46"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="31"/>
-    <n v="5.28"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="32"/>
-    <n v="5.71"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="33"/>
-    <n v="4.24"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="34"/>
-    <n v="6.07"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="35"/>
-    <n v="5.34"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="36"/>
-    <n v="3.74"/>
-    <x v="3"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F2E80BFA-2C02-4347-A18F-F5136C7554F8}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
-  <location ref="G1:I11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow">
-      <items count="10">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="10">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Συχνότητα" fld="0" subtotal="count" baseField="1" baseItem="0"/>
-    <dataField name="Αθροιστική συχνότητα" fld="0" subtotal="count" showDataAs="runTotal" baseField="1" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="8" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="8" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{974CA893-F45A-4C98-94FD-866836D95870}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9" rowHeaderCaption="Downtime(Rounded Up)">
-  <location ref="H1:J9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="8">
-        <item x="6"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Συχνότητα" fld="0" subtotal="count" baseField="2" baseItem="0"/>
-    <dataField name="Αθροιστική Συχνότητα" fld="0" subtotal="count" showDataAs="runTotal" baseField="2" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7517,8 +7638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView zoomScale="78" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7526,319 +7647,354 @@
     <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="18"/>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="16"/>
+      <c r="G1" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>106</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="8">
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6">
         <f>AVERAGE(B2:B37)</f>
         <v>97.472222222222229</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
+      <c r="G2">
+        <v>90</v>
       </c>
       <c r="H2">
+        <f t="array" ref="H2:H9">FREQUENCY(B2:B37,G2:G8)</f>
         <v>1</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I2" s="17">
+        <f>H2/COUNT($A$2:$A$37)</f>
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="J2" s="18">
+        <f>SUM($I$2:I2)</f>
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>95</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="9">
+      <c r="D3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="7">
         <f>MEDIAN(B2:B37)</f>
         <v>95</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>5</v>
+      <c r="G3">
+        <v>95</v>
       </c>
       <c r="H3">
         <v>21</v>
       </c>
-      <c r="I3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I3" s="17">
+        <f t="shared" ref="I3:I9" si="0">H3/COUNT($A$2:$A$37)</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="J3" s="18">
+        <f>SUM($I$2:I3)</f>
+        <v>0.61111111111111116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>103</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="9">
+      <c r="D4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7">
         <f>MIN(B2:B37)</f>
         <v>89</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>6</v>
+      <c r="G4">
+        <v>100</v>
       </c>
       <c r="H4">
         <v>4</v>
       </c>
-      <c r="I4">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I4" s="17">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J4" s="18">
+        <f>SUM($I$2:I4)</f>
+        <v>0.72222222222222232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>91</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="9">
+      <c r="D5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="7">
         <f>MAX(B2:B37)</f>
         <v>123</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>7</v>
+      <c r="G5">
+        <v>105</v>
       </c>
       <c r="H5">
         <v>5</v>
       </c>
-      <c r="I5">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I5" s="17">
+        <f t="shared" si="0"/>
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="J5" s="18">
+        <f>SUM($I$2:I5)</f>
+        <v>0.86111111111111116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>94</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="D6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="7">
         <f>E5-E4</f>
         <v>34</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>8</v>
+      <c r="G6">
+        <v>110</v>
       </c>
       <c r="H6">
         <v>3</v>
       </c>
-      <c r="I6">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I6" s="17">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="J6" s="18">
+        <f>SUM($I$2:I6)</f>
+        <v>0.94444444444444453</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>92</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="8">
+      <c r="D7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="6">
         <f>SKEW(B2:B37)</f>
         <v>1.8832602227658024</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>9</v>
+      <c r="G7">
+        <v>115</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I7" s="17">
+        <f t="shared" si="0"/>
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="J7" s="18">
+        <f>SUM($I$2:I7)</f>
+        <v>0.97222222222222232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>95</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="3"/>
-      <c r="G8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D8" s="4"/>
+      <c r="E8" s="1"/>
+      <c r="G8">
+        <v>120</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="18">
+        <f>SUM($I$2:I8)</f>
+        <v>0.97222222222222232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>93</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="18"/>
-      <c r="G9" s="2" t="s">
-        <v>10</v>
+      <c r="D9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="G9" t="s">
+        <v>30</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
-      <c r="I9">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I9" s="17">
+        <f t="shared" si="0"/>
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="J9" s="18">
+        <f>SUM($I$2:I9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>102</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="8">
+      <c r="D10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="6">
         <f>VARA(B2:B37)</f>
         <v>48.884920634920611</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>89</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="8">
+      <c r="D11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="6">
         <f>STDEVA(B2:B37)</f>
         <v>6.9917752134147317</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>95</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="10">
+      <c r="D12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="8">
         <f>E11/E2</f>
         <v>7.1730951177808588E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>98</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D13" s="4"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <v>107</v>
       </c>
-      <c r="D14" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="18"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D14" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="16"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <v>100</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="9">
+      <c r="D15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="7">
         <f>_xlfn.QUARTILE.EXC(B2:B37,1)</f>
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <v>95</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="9">
+      <c r="D16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="7">
         <f>_xlfn.QUARTILE.EXC(B3:B38,2)</f>
         <v>95</v>
       </c>
@@ -7850,10 +8006,10 @@
       <c r="B17">
         <v>101</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="9">
+      <c r="D17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="7">
         <f>_xlfn.QUARTILE.EXC(B4:B39,3)</f>
         <v>101</v>
       </c>
@@ -7865,10 +8021,10 @@
       <c r="B18">
         <v>97</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="9">
+      <c r="D18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="7">
         <f>E17-E15</f>
         <v>8</v>
       </c>
@@ -7880,10 +8036,10 @@
       <c r="B19">
         <v>93</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="9">
+      <c r="D19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="7">
         <f>E15-1.5*E18</f>
         <v>81</v>
       </c>
@@ -7895,10 +8051,10 @@
       <c r="B20">
         <v>92</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="9">
+      <c r="D20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="7">
         <f>E17+1.5*E18</f>
         <v>113</v>
       </c>
@@ -7910,7 +8066,7 @@
       <c r="B21">
         <v>123</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
@@ -7919,9 +8075,6 @@
       <c r="B22">
         <v>92</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
@@ -7930,15 +8083,17 @@
       <c r="B23">
         <v>93</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
+      <c r="D23" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
@@ -7947,15 +8102,14 @@
       <c r="B24">
         <v>94</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
@@ -7964,15 +8118,14 @@
       <c r="B25">
         <v>92</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
@@ -7997,15 +8150,15 @@
       <c r="B28">
         <v>94</v>
       </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
     </row>
     <row r="29" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29">
@@ -8014,15 +8167,15 @@
       <c r="B29">
         <v>102</v>
       </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
@@ -8095,16 +8248,16 @@
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E91A2646-07CB-4AA5-AEBA-C0765FC6901B}">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8112,36 +8265,40 @@
     <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="18"/>
-      <c r="H1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="16"/>
+      <c r="H1" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8152,24 +8309,30 @@
         <f>_xlfn.CEILING.MATH(B2)</f>
         <v>7</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="8">
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6">
         <f>AVERAGE(B2:B37)</f>
         <v>5.4558333333333344</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2">
         <v>3</v>
       </c>
-      <c r="I2">
+      <c r="I2" cm="1">
+        <f t="array" ref="I2:I8">FREQUENCY(B2:B37,H2:H7)</f>
         <v>1</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J2" s="17">
+        <f>I2/COUNT(A:A)</f>
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="K2" s="18">
+        <f>SUM($J$2:J2)</f>
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8180,24 +8343,29 @@
         <f t="shared" ref="C3:C37" si="0">_xlfn.CEILING.MATH(B3)</f>
         <v>9</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="8">
+      <c r="E3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="6">
         <f>MEDIAN(B2:B37)</f>
         <v>5.4050000000000002</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3">
         <v>4</v>
       </c>
       <c r="I3">
         <v>2</v>
       </c>
-      <c r="J3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J3" s="17">
+        <f t="shared" ref="J3:J8" si="1">I3/COUNT(A:A)</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="K3" s="18">
+        <f>SUM($J$2:J3)</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8208,24 +8376,29 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="8">
+      <c r="E4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="6">
         <f>MIN(B2:B37)</f>
         <v>2.34</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4">
         <v>5</v>
       </c>
       <c r="I4">
         <v>7</v>
       </c>
-      <c r="J4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J4" s="17">
+        <f t="shared" si="1"/>
+        <v>0.19444444444444445</v>
+      </c>
+      <c r="K4" s="18">
+        <f>SUM($J$2:J4)</f>
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8236,24 +8409,29 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="8">
+      <c r="E5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="6">
         <f>MAX(B2:B37)</f>
         <v>8.1199999999999992</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5">
         <v>6</v>
       </c>
       <c r="I5">
         <v>14</v>
       </c>
-      <c r="J5">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J5" s="17">
+        <f t="shared" si="1"/>
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="K5" s="18">
+        <f>SUM($J$2:J5)</f>
+        <v>0.66666666666666674</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8264,24 +8442,29 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="8">
+      <c r="E6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="6">
         <f>F5-F4</f>
         <v>5.7799999999999994</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6">
         <v>7</v>
       </c>
       <c r="I6">
         <v>9</v>
       </c>
-      <c r="J6">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J6" s="17">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="K6" s="18">
+        <f>SUM($J$2:J6)</f>
+        <v>0.91666666666666674</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8292,24 +8475,29 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="8">
+      <c r="E7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="6">
         <f>SKEW(B2:B37)</f>
         <v>-0.125645788636674</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7">
         <v>8</v>
       </c>
       <c r="I7">
         <v>2</v>
       </c>
-      <c r="J7">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J7" s="17">
+        <f t="shared" si="1"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="K7" s="18">
+        <f>SUM($J$2:J7)</f>
+        <v>0.97222222222222232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8320,19 +8508,24 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="3"/>
-      <c r="H8" s="2">
+      <c r="E8" s="4"/>
+      <c r="F8" s="1"/>
+      <c r="H8">
         <v>9</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J8" s="17">
+        <f t="shared" si="1"/>
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="K8" s="18">
+        <f>SUM($J$2:J8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8343,18 +8536,12 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="18"/>
-      <c r="H9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8365,15 +8552,15 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="8">
+      <c r="E10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="6">
         <f>VARA(B2:B37)</f>
         <v>1.3484821428571194</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8384,15 +8571,15 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="8">
+      <c r="E11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="6">
         <f>STDEVA(B2:B37)</f>
         <v>1.1612416384444366</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8403,15 +8590,15 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="10">
+      <c r="E12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="8">
         <f>F11/F2</f>
         <v>0.21284404553739478</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8422,10 +8609,10 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E13" s="4"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8436,12 +8623,12 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E14" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="18"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E14" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8452,15 +8639,15 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="8">
+      <c r="E15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="6">
         <f>_xlfn.QUARTILE.EXC(B2:B37,1)</f>
         <v>4.7824999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8471,10 +8658,10 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="8">
+      <c r="E16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="6">
         <f>_xlfn.QUARTILE.EXC(B3:B38,2)</f>
         <v>5.36</v>
       </c>
@@ -8490,10 +8677,10 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="8">
+      <c r="E17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="6">
         <f>_xlfn.QUARTILE.EXC(B4:B39,3)</f>
         <v>6.1</v>
       </c>
@@ -8509,10 +8696,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="8">
+      <c r="E18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="6">
         <f>F17-F15</f>
         <v>1.3174999999999999</v>
       </c>
@@ -8528,10 +8715,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="8">
+      <c r="E19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="6">
         <f>F15-1.5*F18</f>
         <v>2.8062499999999999</v>
       </c>
@@ -8547,10 +8734,10 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="8">
+      <c r="E20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="6">
         <f>F17+1.5*F18</f>
         <v>8.0762499999999999</v>
       </c>
@@ -8578,8 +8765,8 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E22" s="13" t="s">
-        <v>41</v>
+      <c r="E22" s="11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -8605,8 +8792,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E24" s="13" t="s">
-        <v>41</v>
+      <c r="E24" s="11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -8772,7 +8959,7 @@
     <mergeCell ref="E9:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8781,7 +8968,7 @@
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView zoomScale="91" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8790,17 +8977,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>40</v>
+      <c r="A1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -8810,8 +8997,8 @@
       <c r="B2">
         <v>37.6</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -8820,11 +9007,11 @@
       <c r="B3">
         <v>37.1</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
         <f>(B2+B3+B4)/3</f>
         <v>37.5</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <f>B3-C3</f>
         <v>-0.39999999999999858</v>
       </c>
@@ -8836,11 +9023,11 @@
       <c r="B4">
         <v>37.799999999999997</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <f t="shared" ref="C4:C50" si="0">(B3+B4+B5)/3</f>
         <v>37.6</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <f t="shared" ref="D4:D50" si="1">B4-C4</f>
         <v>0.19999999999999574</v>
       </c>
@@ -8852,11 +9039,11 @@
       <c r="B5">
         <v>37.9</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
         <f t="shared" si="0"/>
         <v>37.333333333333329</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <f t="shared" si="1"/>
         <v>0.56666666666666998</v>
       </c>
@@ -8868,11 +9055,11 @@
       <c r="B6">
         <v>36.299999999999997</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <f t="shared" si="0"/>
         <v>36.999999999999993</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <f t="shared" si="1"/>
         <v>-0.69999999999999574</v>
       </c>
@@ -8884,11 +9071,11 @@
       <c r="B7">
         <v>36.799999999999997</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <f t="shared" si="0"/>
         <v>36.333333333333336</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <f t="shared" si="1"/>
         <v>0.46666666666666146</v>
       </c>
@@ -8900,11 +9087,11 @@
       <c r="B8">
         <v>35.9</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>36.599999999999994</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="2">
         <f t="shared" si="1"/>
         <v>-0.69999999999999574</v>
       </c>
@@ -8916,11 +9103,11 @@
       <c r="B9">
         <v>37.1</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="1">
         <f t="shared" si="0"/>
         <v>36.43333333333333</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="2">
         <f t="shared" si="1"/>
         <v>0.6666666666666714</v>
       </c>
@@ -8932,11 +9119,11 @@
       <c r="B10">
         <v>36.299999999999997</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="1">
         <f t="shared" si="0"/>
         <v>36.4</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="2">
         <f t="shared" si="1"/>
         <v>-0.10000000000000142</v>
       </c>
@@ -8948,11 +9135,11 @@
       <c r="B11">
         <v>35.799999999999997</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="1">
         <f t="shared" si="0"/>
         <v>35.733333333333327</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="2">
         <f t="shared" si="1"/>
         <v>6.6666666666669983E-2</v>
       </c>
@@ -8964,11 +9151,11 @@
       <c r="B12">
         <v>35.1</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="1">
         <f t="shared" si="0"/>
         <v>35.433333333333337</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="2">
         <f t="shared" si="1"/>
         <v>-0.3333333333333357</v>
       </c>
@@ -8980,11 +9167,11 @@
       <c r="B13">
         <v>35.4</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="1">
         <f t="shared" si="0"/>
         <v>35.6</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="2">
         <f t="shared" si="1"/>
         <v>-0.20000000000000284</v>
       </c>
@@ -8996,11 +9183,11 @@
       <c r="B14">
         <v>36.299999999999997</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="1">
         <f t="shared" si="0"/>
         <v>36.033333333333331</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="2">
         <f t="shared" si="1"/>
         <v>0.26666666666666572</v>
       </c>
@@ -9012,11 +9199,11 @@
       <c r="B15">
         <v>36.4</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="1">
         <f t="shared" si="0"/>
         <v>36.699999999999996</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="2">
         <f t="shared" si="1"/>
         <v>-0.29999999999999716</v>
       </c>
@@ -9028,11 +9215,11 @@
       <c r="B16">
         <v>37.4</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="1">
         <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="2">
         <f t="shared" si="1"/>
         <v>0.73333333333333428</v>
       </c>
@@ -9044,11 +9231,11 @@
       <c r="B17">
         <v>36.200000000000003</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="1">
         <f t="shared" si="0"/>
         <v>37.266666666666666</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="2">
         <f t="shared" si="1"/>
         <v>-1.0666666666666629</v>
       </c>
@@ -9060,11 +9247,11 @@
       <c r="B18">
         <v>38.200000000000003</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="1">
         <f t="shared" si="0"/>
         <v>36.833333333333336</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="2">
         <f t="shared" si="1"/>
         <v>1.3666666666666671</v>
       </c>
@@ -9076,11 +9263,11 @@
       <c r="B19">
         <v>36.1</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="1">
         <f t="shared" si="0"/>
         <v>36.633333333333333</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="2">
         <f t="shared" si="1"/>
         <v>-0.53333333333333144</v>
       </c>
@@ -9092,11 +9279,11 @@
       <c r="B20">
         <v>35.6</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="1">
         <f t="shared" si="0"/>
         <v>35.533333333333331</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="2">
         <f t="shared" si="1"/>
         <v>6.6666666666669983E-2</v>
       </c>
@@ -9108,11 +9295,11 @@
       <c r="B21">
         <v>34.9</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="1">
         <f t="shared" si="0"/>
         <v>35.1</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="2">
         <f t="shared" si="1"/>
         <v>-0.20000000000000284</v>
       </c>
@@ -9124,11 +9311,11 @@
       <c r="B22">
         <v>34.799999999999997</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="1">
         <f t="shared" si="0"/>
         <v>34.833333333333329</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="2">
         <f t="shared" si="1"/>
         <v>-3.3333333333331439E-2</v>
       </c>
@@ -9140,11 +9327,11 @@
       <c r="B23">
         <v>34.799999999999997</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="1">
         <f t="shared" si="0"/>
         <v>34.833333333333336</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="2">
         <f t="shared" si="1"/>
         <v>-3.3333333333338544E-2</v>
       </c>
@@ -9156,11 +9343,11 @@
       <c r="B24">
         <v>34.9</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="1">
         <f t="shared" si="0"/>
         <v>35.566666666666663</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="2">
         <f t="shared" si="1"/>
         <v>-0.6666666666666643</v>
       </c>
@@ -9172,11 +9359,11 @@
       <c r="B25">
         <v>37</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="1">
         <f t="shared" si="0"/>
         <v>35.800000000000004</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="2">
         <f t="shared" si="1"/>
         <v>1.1999999999999957</v>
       </c>
@@ -9188,11 +9375,11 @@
       <c r="B26">
         <v>35.5</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="1">
         <f t="shared" si="0"/>
         <v>36.133333333333333</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="2">
         <f t="shared" si="1"/>
         <v>-0.63333333333333286</v>
       </c>
@@ -9204,11 +9391,11 @@
       <c r="B27">
         <v>35.9</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="1">
         <f t="shared" si="0"/>
         <v>35.666666666666664</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="2">
         <f t="shared" si="1"/>
         <v>0.23333333333333428</v>
       </c>
@@ -9220,11 +9407,11 @@
       <c r="B28">
         <v>35.6</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="1">
         <f t="shared" si="0"/>
         <v>35.666666666666664</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="2">
         <f t="shared" si="1"/>
         <v>-6.6666666666662877E-2</v>
       </c>
@@ -9236,11 +9423,11 @@
       <c r="B29">
         <v>35.5</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="1">
         <f t="shared" si="0"/>
         <v>35.6</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="2">
         <f t="shared" si="1"/>
         <v>-0.10000000000000142</v>
       </c>
@@ -9252,11 +9439,11 @@
       <c r="B30">
         <v>35.700000000000003</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="1">
         <f t="shared" si="0"/>
         <v>35.666666666666664</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="2">
         <f t="shared" si="1"/>
         <v>3.3333333333338544E-2</v>
       </c>
@@ -9268,11 +9455,11 @@
       <c r="B31">
         <v>35.799999999999997</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="1">
         <f t="shared" si="0"/>
         <v>35.93333333333333</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="2">
         <f t="shared" si="1"/>
         <v>-0.13333333333333286</v>
       </c>
@@ -9284,11 +9471,11 @@
       <c r="B32">
         <v>36.299999999999997</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="1">
         <f t="shared" si="0"/>
         <v>36.299999999999997</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9300,11 +9487,11 @@
       <c r="B33">
         <v>36.799999999999997</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="1">
         <f t="shared" si="0"/>
         <v>36.533333333333331</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="2">
         <f t="shared" si="1"/>
         <v>0.26666666666666572</v>
       </c>
@@ -9316,11 +9503,11 @@
       <c r="B34">
         <v>36.5</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="1">
         <f t="shared" si="0"/>
         <v>37.266666666666666</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="2">
         <f t="shared" si="1"/>
         <v>-0.76666666666666572</v>
       </c>
@@ -9332,11 +9519,11 @@
       <c r="B35">
         <v>38.5</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="1">
         <f t="shared" si="0"/>
         <v>37.300000000000004</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="2">
         <f t="shared" si="1"/>
         <v>1.1999999999999957</v>
       </c>
@@ -9348,11 +9535,11 @@
       <c r="B36">
         <v>36.9</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="1">
         <f t="shared" si="0"/>
         <v>37.800000000000004</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="2">
         <f t="shared" si="1"/>
         <v>-0.90000000000000568</v>
       </c>
@@ -9364,11 +9551,11 @@
       <c r="B37">
         <v>38</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="1">
         <f t="shared" si="0"/>
         <v>37.700000000000003</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="2">
         <f t="shared" si="1"/>
         <v>0.29999999999999716</v>
       </c>
@@ -9380,11 +9567,11 @@
       <c r="B38">
         <v>38.200000000000003</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="1">
         <f t="shared" si="0"/>
         <v>38.166666666666664</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="2">
         <f t="shared" si="1"/>
         <v>3.3333333333338544E-2</v>
       </c>
@@ -9396,11 +9583,11 @@
       <c r="B39">
         <v>38.299999999999997</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="1">
         <f t="shared" si="0"/>
         <v>38.466666666666669</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="2">
         <f t="shared" si="1"/>
         <v>-0.1666666666666714</v>
       </c>
@@ -9412,11 +9599,11 @@
       <c r="B40">
         <v>38.9</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="1">
         <f t="shared" si="0"/>
         <v>38.799999999999997</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="2">
         <f t="shared" si="1"/>
         <v>0.10000000000000142</v>
       </c>
@@ -9428,11 +9615,11 @@
       <c r="B41">
         <v>39.200000000000003</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="1">
         <f t="shared" si="0"/>
         <v>39.133333333333333</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="2">
         <f t="shared" si="1"/>
         <v>6.6666666666669983E-2</v>
       </c>
@@ -9444,11 +9631,11 @@
       <c r="B42">
         <v>39.299999999999997</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="1">
         <f t="shared" si="0"/>
         <v>39.333333333333336</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="2">
         <f t="shared" si="1"/>
         <v>-3.3333333333338544E-2</v>
       </c>
@@ -9460,11 +9647,11 @@
       <c r="B43">
         <v>39.5</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="1">
         <f t="shared" si="0"/>
         <v>39.633333333333333</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="2">
         <f t="shared" si="1"/>
         <v>-0.13333333333333286</v>
       </c>
@@ -9476,11 +9663,11 @@
       <c r="B44">
         <v>40.1</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="1">
         <f t="shared" si="0"/>
         <v>39.733333333333327</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="2">
         <f t="shared" si="1"/>
         <v>0.36666666666667425</v>
       </c>
@@ -9492,11 +9679,11 @@
       <c r="B45">
         <v>39.6</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="1">
         <f t="shared" si="0"/>
         <v>39.800000000000004</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="2">
         <f t="shared" si="1"/>
         <v>-0.20000000000000284</v>
       </c>
@@ -9508,11 +9695,11 @@
       <c r="B46">
         <v>39.700000000000003</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="1">
         <f t="shared" si="0"/>
         <v>39.900000000000006</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="2">
         <f t="shared" si="1"/>
         <v>-0.20000000000000284</v>
       </c>
@@ -9524,11 +9711,11 @@
       <c r="B47">
         <v>40.4</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="2">
         <f t="shared" si="1"/>
         <v>-0.60000000000000142</v>
       </c>
@@ -9540,11 +9727,11 @@
       <c r="B48">
         <v>42.9</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="1">
         <f t="shared" si="0"/>
         <v>41.966666666666669</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="2">
         <f t="shared" si="1"/>
         <v>0.93333333333333002</v>
       </c>
@@ -9556,11 +9743,11 @@
       <c r="B49">
         <v>42.6</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="1">
         <f t="shared" si="0"/>
         <v>42.533333333333331</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="2">
         <f t="shared" si="1"/>
         <v>6.6666666666669983E-2</v>
       </c>
@@ -9572,11 +9759,11 @@
       <c r="B50">
         <v>42.1</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="1">
         <f t="shared" si="0"/>
         <v>42.4</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="2">
         <f t="shared" si="1"/>
         <v>-0.29999999999999716</v>
       </c>

--- a/semester A/Data Analysis/Assignments/Koutsompinas-Assignment-1-Exercise-2&3.xlsx
+++ b/semester A/Data Analysis/Assignments/Koutsompinas-Assignment-1-Exercise-2&3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ppapa\OneDrive\Υπολογιστής\MSC\semester A\Data Analysis\Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C6737D-DB95-4FE5-894E-80592A64B270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A237BA6A-E853-4D94-B154-0B645312DCEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercise 2 Productivity" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Exercise 2 Productivity'!$B$2:$B$37</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Exercise 2 Productivity'!$B$2:$B$37</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Exercise 2 Downtime'!$B$2:$B$37</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Exercise 2 Downtime'!$B$2:$B$37</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Exercise 2 Downtime'!$B$2:$B$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -297,15 +295,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,6 +427,38 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Exercise 2 Productivity'!$G$2:$G$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>&gt;120</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Exercise 2 Productivity'!$I$2:$I$9</c:f>
@@ -569,6 +599,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -721,6 +752,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="509110463"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -910,6 +942,36 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Exercise 2 Downtime'!$H$2:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Exercise 2 Downtime'!$J$2:$J$8</c:f>
@@ -1044,6 +1106,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1140,7 +1203,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="142452255"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
@@ -1196,6 +1259,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="580317087"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2768,7 +2832,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2830,7 +2894,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6681,8 +6745,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4262030" y="1753749"/>
-              <a:ext cx="4159047" cy="2300482"/>
+              <a:off x="4269259" y="1729131"/>
+              <a:ext cx="4170184" cy="2267657"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7204,8 +7268,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5275727" y="1524001"/>
-              <a:ext cx="3016625" cy="2241175"/>
+              <a:off x="5268107" y="1552688"/>
+              <a:ext cx="3022452" cy="2287792"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7638,8 +7702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7660,20 +7724,20 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="G1" s="19" t="s">
+      <c r="E1" s="19"/>
+      <c r="G1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="17" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7698,11 +7762,11 @@
         <f t="array" ref="H2:H9">FREQUENCY(B2:B37,G2:G8)</f>
         <v>1</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="15">
         <f>H2/COUNT($A$2:$A$37)</f>
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="16">
         <f>SUM($I$2:I2)</f>
         <v>2.7777777777777776E-2</v>
       </c>
@@ -7727,11 +7791,11 @@
       <c r="H3">
         <v>21</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="15">
         <f t="shared" ref="I3:I9" si="0">H3/COUNT($A$2:$A$37)</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="16">
         <f>SUM($I$2:I3)</f>
         <v>0.61111111111111116</v>
       </c>
@@ -7756,11 +7820,11 @@
       <c r="H4">
         <v>4</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="15">
         <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="16">
         <f>SUM($I$2:I4)</f>
         <v>0.72222222222222232</v>
       </c>
@@ -7785,11 +7849,11 @@
       <c r="H5">
         <v>5</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="15">
         <f t="shared" si="0"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="16">
         <f>SUM($I$2:I5)</f>
         <v>0.86111111111111116</v>
       </c>
@@ -7814,11 +7878,11 @@
       <c r="H6">
         <v>3</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="15">
         <f t="shared" si="0"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="16">
         <f>SUM($I$2:I6)</f>
         <v>0.94444444444444453</v>
       </c>
@@ -7843,11 +7907,11 @@
       <c r="H7">
         <v>1</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="15">
         <f t="shared" si="0"/>
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="16">
         <f>SUM($I$2:I7)</f>
         <v>0.97222222222222232</v>
       </c>
@@ -7867,11 +7931,11 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="16">
         <f>SUM($I$2:I8)</f>
         <v>0.97222222222222232</v>
       </c>
@@ -7883,21 +7947,21 @@
       <c r="B9">
         <v>93</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="16"/>
+      <c r="E9" s="19"/>
       <c r="G9" t="s">
         <v>30</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="15">
         <f t="shared" si="0"/>
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="16">
         <f>SUM($I$2:I9)</f>
         <v>1</v>
       </c>
@@ -7964,10 +8028,10 @@
       <c r="B14">
         <v>107</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="16"/>
+      <c r="E14" s="19"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -8256,8 +8320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E91A2646-07CB-4AA5-AEBA-C0765FC6901B}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8281,20 +8345,20 @@
       <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="H1" s="19" t="s">
+      <c r="F1" s="19"/>
+      <c r="H1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="17" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8323,11 +8387,11 @@
         <f t="array" ref="I2:I8">FREQUENCY(B2:B37,H2:H7)</f>
         <v>1</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="15">
         <f>I2/COUNT(A:A)</f>
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="K2" s="18">
+      <c r="K2" s="16">
         <f>SUM($J$2:J2)</f>
         <v>2.7777777777777776E-2</v>
       </c>
@@ -8356,11 +8420,11 @@
       <c r="I3">
         <v>2</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="15">
         <f t="shared" ref="J3:J8" si="1">I3/COUNT(A:A)</f>
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="K3" s="18">
+      <c r="K3" s="16">
         <f>SUM($J$2:J3)</f>
         <v>8.3333333333333329E-2</v>
       </c>
@@ -8389,11 +8453,11 @@
       <c r="I4">
         <v>7</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="15">
         <f t="shared" si="1"/>
         <v>0.19444444444444445</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K4" s="16">
         <f>SUM($J$2:J4)</f>
         <v>0.27777777777777779</v>
       </c>
@@ -8422,11 +8486,11 @@
       <c r="I5">
         <v>14</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="15">
         <f t="shared" si="1"/>
         <v>0.3888888888888889</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="16">
         <f>SUM($J$2:J5)</f>
         <v>0.66666666666666674</v>
       </c>
@@ -8455,11 +8519,11 @@
       <c r="I6">
         <v>9</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="15">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K6" s="16">
         <f>SUM($J$2:J6)</f>
         <v>0.91666666666666674</v>
       </c>
@@ -8488,11 +8552,11 @@
       <c r="I7">
         <v>2</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="15">
         <f t="shared" si="1"/>
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="16">
         <f>SUM($J$2:J7)</f>
         <v>0.97222222222222232</v>
       </c>
@@ -8516,11 +8580,11 @@
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="15">
         <f t="shared" si="1"/>
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="K8" s="18">
+      <c r="K8" s="16">
         <f>SUM($J$2:J8)</f>
         <v>1</v>
       </c>
@@ -8536,10 +8600,10 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="16"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -8623,10 +8687,10 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="16"/>
+      <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">

--- a/semester A/Data Analysis/Assignments/Koutsompinas-Assignment-1-Exercise-2&3.xlsx
+++ b/semester A/Data Analysis/Assignments/Koutsompinas-Assignment-1-Exercise-2&3.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ppapa\OneDrive\Υπολογιστής\MSC\semester A\Data Analysis\Assignments\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A237BA6A-E853-4D94-B154-0B645312DCEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Exercise 2 Productivity" sheetId="1" r:id="rId1"/>
@@ -39,7 +33,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -69,13 +63,19 @@
     <t>Productivity</t>
   </si>
   <si>
-    <t>Downtime Hour</t>
+    <t>Μέτρα Θέσεως</t>
   </si>
   <si>
-    <t>RoundUp of Downtime</t>
+    <t>Κλάσεις</t>
   </si>
   <si>
-    <t>Μέτρα Θέσεως</t>
+    <t>Συχνότητες</t>
+  </si>
+  <si>
+    <t>Σχ.Συχνότητες</t>
+  </si>
+  <si>
+    <t>Αθρ. Σχ. Συχνότητες</t>
   </si>
   <si>
     <t>average</t>
@@ -99,6 +99,9 @@
     <t>Μέτρα Διασποράς</t>
   </si>
   <si>
+    <t>&gt;120</t>
+  </si>
+  <si>
     <t>variance</t>
   </si>
   <si>
@@ -111,9 +114,6 @@
     <t>Τεταρτημόρια</t>
   </si>
   <si>
-    <t>IQR</t>
-  </si>
-  <si>
     <t>Q1</t>
   </si>
   <si>
@@ -123,10 +123,22 @@
     <t>Q3</t>
   </si>
   <si>
+    <t>IQR</t>
+  </si>
+  <si>
     <t>outlier lower</t>
   </si>
   <si>
     <t>outlier upper</t>
+  </si>
+  <si>
+    <t>Ερωτήματα</t>
+  </si>
+  <si>
+    <t>Downtime Hour</t>
+  </si>
+  <si>
+    <t>RoundUp of Downtime</t>
   </si>
   <si>
     <t>Year</t>
@@ -140,45 +152,24 @@
   <si>
     <t>Residual</t>
   </si>
-  <si>
-    <t>Ερωτήματα</t>
-  </si>
-  <si>
-    <t>Συχνότητες</t>
-  </si>
-  <si>
-    <t>Κλάσεις</t>
-  </si>
-  <si>
-    <t>Σχ.Συχνότητες</t>
-  </si>
-  <si>
-    <t>&gt;120</t>
-  </si>
-  <si>
-    <t>Αθρ. Σχ. Συχνότητες</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -186,7 +177,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="161"/>
       <scheme val="minor"/>
     </font>
@@ -194,12 +184,162 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="161"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,18 +348,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
+        <fgColor theme="3" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -229,103 +555,385 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -343,7 +951,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -367,6 +975,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -375,26 +984,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -427,6 +1016,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Exercise 2 Productivity'!$G$2:$G$9</c:f>
@@ -466,37 +1058,32 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.7777777777777776E-2</c:v>
+                  <c:v>0.0277777777777778</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.58333333333333337</c:v>
+                  <c:v>0.583333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1111111111111111</c:v>
+                  <c:v>0.111111111111111</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1388888888888889</c:v>
+                  <c:v>0.138888888888889</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.3333333333333329E-2</c:v>
+                  <c:v>0.0833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7777777777777776E-2</c:v>
+                  <c:v>0.0277777777777778</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.7777777777777776E-2</c:v>
+                  <c:v>0.0277777777777778</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BB46-421E-B9FD-B645A494E902}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -539,6 +1126,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>'Exercise 2 Productivity'!$J$2:$J$9</c:f>
@@ -546,25 +1136,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.7777777777777776E-2</c:v>
+                  <c:v>0.0277777777777778</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.61111111111111116</c:v>
+                  <c:v>0.611111111111111</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.72222222222222232</c:v>
+                  <c:v>0.722222222222222</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.86111111111111116</c:v>
+                  <c:v>0.861111111111111</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.94444444444444453</c:v>
+                  <c:v>0.944444444444445</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97222222222222232</c:v>
+                  <c:v>0.972222222222222</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97222222222222232</c:v>
+                  <c:v>0.972222222222222</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1</c:v>
@@ -573,11 +1163,6 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BB46-421E-B9FD-B645A494E902}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -587,7 +1172,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
+        <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="509107103"/>
         <c:axId val="509110463"/>
@@ -621,7 +1206,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -633,7 +1218,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="110579695"/>
@@ -680,7 +1264,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -692,13 +1276,48 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1836238095"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:catAx>
+        <c:axId val="509107103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="509110463"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="509110463"/>
         <c:scaling>
@@ -722,7 +1341,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -734,30 +1353,12 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="509107103"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:catAx>
-        <c:axId val="509107103"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="509110463"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -768,6 +1369,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -781,7 +1383,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -793,20 +1395,17 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{8a59cb45-1f09-46b0-b492-4134d15c35b1}"/>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -828,9 +1427,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="en-US"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -842,9 +1440,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -862,7 +1460,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -882,6 +1480,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -890,26 +1489,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -942,6 +1521,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'Exercise 2 Downtime'!$H$2:$H$8</c:f>
@@ -979,34 +1561,29 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.7777777777777776E-2</c:v>
+                  <c:v>0.0277777777777778</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5555555555555552E-2</c:v>
+                  <c:v>0.0555555555555556</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19444444444444445</c:v>
+                  <c:v>0.194444444444444</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3888888888888889</c:v>
+                  <c:v>0.388888888888889</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.5555555555555552E-2</c:v>
+                  <c:v>0.0555555555555556</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7777777777777776E-2</c:v>
+                  <c:v>0.0277777777777778</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B337-4722-8E26-921EE8BD29F5}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1049,6 +1626,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>'Exercise 2 Downtime'!$K$2:$K$8</c:f>
@@ -1056,22 +1636,22 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.7777777777777776E-2</c:v>
+                  <c:v>0.0277777777777778</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.3333333333333329E-2</c:v>
+                  <c:v>0.0833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27777777777777779</c:v>
+                  <c:v>0.277777777777778</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.66666666666666674</c:v>
+                  <c:v>0.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91666666666666674</c:v>
+                  <c:v>0.916666666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97222222222222232</c:v>
+                  <c:v>0.972222222222222</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
@@ -1080,11 +1660,6 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B337-4722-8E26-921EE8BD29F5}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1094,7 +1669,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
+        <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="580322367"/>
         <c:axId val="580317087"/>
@@ -1128,7 +1703,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1140,7 +1715,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="142451295"/>
@@ -1187,7 +1761,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1199,13 +1773,48 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="142452255"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:catAx>
+        <c:axId val="580322367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="580317087"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="580317087"/>
         <c:scaling>
@@ -1229,7 +1838,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1241,30 +1850,12 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="580322367"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:catAx>
-        <c:axId val="580322367"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="580317087"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1275,6 +1866,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1293,7 +1885,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1305,20 +1897,17 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{cfc1e125-a2bc-4a1f-855d-df782b8da814}"/>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1340,9 +1929,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="en-US"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1354,9 +1942,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1374,7 +1962,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="70" baseline="0">
+              <a:defRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="70" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1">
                     <a:lumMod val="50000"/>
@@ -1390,9 +1978,11 @@
               <a:rPr lang="en-US"/>
               <a:t>Gini Coefficient</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1401,32 +1991,12 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="70" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="marker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1464,6 +2034,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'Exercise 3'!$A$2:$A$51</c:f>
@@ -1636,16 +2209,16 @@
                   <c:v>37.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.799999999999997</c:v>
+                  <c:v>37.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>37.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.299999999999997</c:v>
+                  <c:v>36.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36.799999999999997</c:v>
+                  <c:v>36.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>35.9</c:v>
@@ -1654,10 +2227,10 @@
                   <c:v>37.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36.299999999999997</c:v>
+                  <c:v>36.3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35.799999999999997</c:v>
+                  <c:v>35.8</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>35.1</c:v>
@@ -1666,7 +2239,7 @@
                   <c:v>35.4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>36.299999999999997</c:v>
+                  <c:v>36.3</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>36.4</c:v>
@@ -1675,10 +2248,10 @@
                   <c:v>37.4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>36.200000000000003</c:v>
+                  <c:v>36.2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>38.200000000000003</c:v>
+                  <c:v>38.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>36.1</c:v>
@@ -1690,10 +2263,10 @@
                   <c:v>34.9</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>34.799999999999997</c:v>
+                  <c:v>34.8</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>34.799999999999997</c:v>
+                  <c:v>34.8</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>34.9</c:v>
@@ -1714,16 +2287,16 @@
                   <c:v>35.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>35.700000000000003</c:v>
+                  <c:v>35.7</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>35.799999999999997</c:v>
+                  <c:v>35.8</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>36.299999999999997</c:v>
+                  <c:v>36.3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>36.799999999999997</c:v>
+                  <c:v>36.8</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>36.5</c:v>
@@ -1738,19 +2311,19 @@
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>38.200000000000003</c:v>
+                  <c:v>38.2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>38.299999999999997</c:v>
+                  <c:v>38.3</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>38.9</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>39.200000000000003</c:v>
+                  <c:v>39.2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>39.299999999999997</c:v>
+                  <c:v>39.3</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>39.5</c:v>
@@ -1762,7 +2335,7 @@
                   <c:v>39.6</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>39.700000000000003</c:v>
+                  <c:v>39.7</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>40.4</c:v>
@@ -1783,11 +2356,6 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-531A-4B1B-A0E0-90B536CD281F}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1825,6 +2393,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'Exercise 3'!$A$2:$A$51</c:f>
@@ -1997,139 +2568,139 @@
                   <c:v>37.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.333333333333329</c:v>
+                  <c:v>37.3333333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.999999999999993</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36.333333333333336</c:v>
+                  <c:v>36.3333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36.599999999999994</c:v>
+                  <c:v>36.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36.43333333333333</c:v>
+                  <c:v>36.4333333333333</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>36.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35.733333333333327</c:v>
+                  <c:v>35.7333333333333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>35.433333333333337</c:v>
+                  <c:v>35.4333333333333</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>35.6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>36.033333333333331</c:v>
+                  <c:v>36.0333333333333</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>36.699999999999996</c:v>
+                  <c:v>36.7</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36.666666666666664</c:v>
+                  <c:v>36.6666666666667</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>37.266666666666666</c:v>
+                  <c:v>37.2666666666667</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>36.833333333333336</c:v>
+                  <c:v>36.8333333333333</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>36.633333333333333</c:v>
+                  <c:v>36.6333333333333</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>35.533333333333331</c:v>
+                  <c:v>35.5333333333333</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>35.1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>34.833333333333329</c:v>
+                  <c:v>34.8333333333333</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>34.833333333333336</c:v>
+                  <c:v>34.8333333333333</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>35.566666666666663</c:v>
+                  <c:v>35.5666666666667</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>35.800000000000004</c:v>
+                  <c:v>35.8</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>36.133333333333333</c:v>
+                  <c:v>36.1333333333333</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>35.666666666666664</c:v>
+                  <c:v>35.6666666666667</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>35.666666666666664</c:v>
+                  <c:v>35.6666666666667</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>35.6</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>35.666666666666664</c:v>
+                  <c:v>35.6666666666667</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>35.93333333333333</c:v>
+                  <c:v>35.9333333333333</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>36.299999999999997</c:v>
+                  <c:v>36.3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>36.533333333333331</c:v>
+                  <c:v>36.5333333333333</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>37.266666666666666</c:v>
+                  <c:v>37.2666666666667</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>37.300000000000004</c:v>
+                  <c:v>37.3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>37.800000000000004</c:v>
+                  <c:v>37.8</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>37.700000000000003</c:v>
+                  <c:v>37.7</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>38.166666666666664</c:v>
+                  <c:v>38.1666666666667</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>38.466666666666669</c:v>
+                  <c:v>38.4666666666667</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>38.799999999999997</c:v>
+                  <c:v>38.8</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>39.133333333333333</c:v>
+                  <c:v>39.1333333333333</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>39.333333333333336</c:v>
+                  <c:v>39.3333333333333</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>39.633333333333333</c:v>
+                  <c:v>39.6333333333333</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>39.733333333333327</c:v>
+                  <c:v>39.7333333333333</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>39.800000000000004</c:v>
+                  <c:v>39.8</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>39.900000000000006</c:v>
+                  <c:v>39.9</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>41.966666666666669</c:v>
+                  <c:v>41.9666666666667</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>42.533333333333331</c:v>
+                  <c:v>42.5333333333333</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>42.4</c:v>
@@ -2138,11 +2709,6 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-531A-4B1B-A0E0-90B536CD281F}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2198,7 +2764,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1">
                     <a:lumMod val="50000"/>
@@ -2210,7 +2776,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="156079279"/>
@@ -2255,7 +2820,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1">
                     <a:lumMod val="50000"/>
@@ -2267,7 +2832,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="156078319"/>
@@ -2284,6 +2848,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2297,7 +2862,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1">
                   <a:lumMod val="50000"/>
@@ -2309,20 +2874,17 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{e2a8bb4f-7550-4d27-a92f-700bd208ab76}"/>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -2357,9 +2919,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="en-US"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2371,9 +2932,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2391,7 +2952,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2407,9 +2968,11 @@
               <a:rPr lang="en-US"/>
               <a:t>Residual Graph</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2418,32 +2981,12 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="marker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2481,6 +3024,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:yVal>
             <c:numRef>
               <c:f>'Exercise 3'!$D$2:$D$51</c:f>
@@ -2488,158 +3034,153 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="1">
-                  <c:v>-0.39999999999999858</c:v>
+                  <c:v>-0.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19999999999999574</c:v>
+                  <c:v>0.199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.56666666666666998</c:v>
+                  <c:v>0.56666666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.69999999999999574</c:v>
+                  <c:v>-0.699999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.46666666666666146</c:v>
+                  <c:v>0.466666666666661</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.69999999999999574</c:v>
+                  <c:v>-0.699999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.6666666666666714</c:v>
+                  <c:v>0.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.10000000000000142</c:v>
+                  <c:v>-0.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.6666666666669983E-2</c:v>
+                  <c:v>0.06666666666667</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.3333333333333357</c:v>
+                  <c:v>-0.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.20000000000000284</c:v>
+                  <c:v>-0.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.26666666666666572</c:v>
+                  <c:v>0.266666666666666</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.29999999999999716</c:v>
+                  <c:v>-0.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.73333333333333428</c:v>
+                  <c:v>0.733333333333334</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1.0666666666666629</c:v>
+                  <c:v>-1.06666666666666</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.3666666666666671</c:v>
+                  <c:v>1.36666666666667</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.53333333333333144</c:v>
+                  <c:v>-0.533333333333331</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.6666666666669983E-2</c:v>
+                  <c:v>0.06666666666667</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.20000000000000284</c:v>
+                  <c:v>-0.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-3.3333333333331439E-2</c:v>
+                  <c:v>-0.0333333333333314</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-3.3333333333338544E-2</c:v>
+                  <c:v>-0.0333333333333385</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.6666666666666643</c:v>
+                  <c:v>-0.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.1999999999999957</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.63333333333333286</c:v>
+                  <c:v>-0.633333333333333</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.23333333333333428</c:v>
+                  <c:v>0.233333333333334</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-6.6666666666662877E-2</c:v>
+                  <c:v>-0.0666666666666629</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.10000000000000142</c:v>
+                  <c:v>-0.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.3333333333338544E-2</c:v>
+                  <c:v>0.0333333333333385</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.13333333333333286</c:v>
+                  <c:v>-0.133333333333333</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.26666666666666572</c:v>
+                  <c:v>0.266666666666666</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.76666666666666572</c:v>
+                  <c:v>-0.766666666666666</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.1999999999999957</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.90000000000000568</c:v>
+                  <c:v>-0.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.29999999999999716</c:v>
+                  <c:v>0.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.3333333333338544E-2</c:v>
+                  <c:v>0.0333333333333385</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.1666666666666714</c:v>
+                  <c:v>-0.166666666666671</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.10000000000000142</c:v>
+                  <c:v>0.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6.6666666666669983E-2</c:v>
+                  <c:v>0.06666666666667</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-3.3333333333338544E-2</c:v>
+                  <c:v>-0.0333333333333385</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.13333333333333286</c:v>
+                  <c:v>-0.133333333333333</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.36666666666667425</c:v>
+                  <c:v>0.366666666666674</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-0.20000000000000284</c:v>
+                  <c:v>-0.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-0.20000000000000284</c:v>
+                  <c:v>-0.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.60000000000000142</c:v>
+                  <c:v>-0.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.93333333333333002</c:v>
+                  <c:v>0.93333333333333</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6.6666666666669983E-2</c:v>
+                  <c:v>0.06666666666667</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.29999999999999716</c:v>
+                  <c:v>-0.299999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0FF2-4A7B-9FC7-95A99043FAFB}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2694,7 +3235,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2706,7 +3247,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="220822479"/>
@@ -2756,7 +3296,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2768,7 +3308,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="220813839"/>
@@ -2785,14 +3324,12 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{dc800a1e-9082-4f34-95c8-16dab058243d}"/>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2814,9 +3351,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="en-US"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2825,130 +3361,6 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>Box And Whiskers</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Box And Whiskers</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{458E770B-9DDC-4245-A227-31A1CF2E1C01}">
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling min="80"/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>Box And Whiskers</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Box And Whiskers</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{1DFAC333-08F0-4211-875C-52CD6290C292}">
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling min="2"/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-  </cx:chart>
-</cx:chartSpace>
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3111,602 +3523,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4209,522 +4026,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5240,7 +4542,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="244">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5760,7 +5062,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6277,7 +5579,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -6286,21 +5588,15 @@
       <xdr:rowOff>170329</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6343484" cy="1039906"/>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE7127C-0AC0-4258-958E-F8F549BB43E0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1855695" y="6087035"/>
-          <a:ext cx="6343484" cy="1039906"/>
+          <a:off x="1859280" y="6205220"/>
+          <a:ext cx="6343650" cy="1039495"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6346,21 +5642,15 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>171134</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="TextBox 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7C8E902-840A-BE88-1F20-3D7DDF9AF2D1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1943502" y="4278922"/>
-          <a:ext cx="7758378" cy="1460674"/>
+          <a:off x="1953260" y="4215765"/>
+          <a:ext cx="7960360" cy="1441450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6434,6 +5724,7 @@
             <a:rPr lang="el-GR"/>
             <a:t> </a:t>
           </a:r>
+          <a:endParaRPr lang="el-GR"/>
         </a:p>
         <a:p>
           <a:r>
@@ -6476,6 +5767,7 @@
             <a:rPr lang="el-GR"/>
             <a:t> </a:t>
           </a:r>
+          <a:endParaRPr lang="el-GR"/>
         </a:p>
         <a:p>
           <a:r>
@@ -6651,21 +5943,15 @@
       <xdr:rowOff>125506</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="TextBox 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5DDD6BA-99C3-19A6-F30F-DD9CF0760A80}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6974541" y="5862918"/>
-          <a:ext cx="184731" cy="264560"/>
+          <a:off x="6729730" y="5977255"/>
+          <a:ext cx="184785" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6700,6 +5986,33 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>588799</xdr:colOff>
       <xdr:row>9</xdr:row>
@@ -6711,69 +6024,43 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>156308</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="2" name="Chart 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E46E5CA1-FF9C-AE7A-BEF9-7F607C6EBF84}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4269259" y="1729131"/>
-              <a:ext cx="4170184" cy="2267657"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangles 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noTextEdit="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4284345" y="1729105"/>
+          <a:ext cx="4177665" cy="2267585"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:prstClr val="white"/>
+        </a:solidFill>
+        <a:ln w="1">
+          <a:solidFill>
+            <a:prstClr val="green"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -6789,24 +6076,18 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26C7E19F-C0C6-B9B8-8C70-1618D9846079}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="9119870" y="0"/>
+        <a:ext cx="4867275" cy="4023360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6816,35 +6097,29 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>605117</xdr:colOff>
+      <xdr:colOff>603885</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>17930</xdr:rowOff>
+      <xdr:rowOff>17780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>493058</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>107578</xdr:rowOff>
+      <xdr:colOff>492125</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>168910</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31D96E37-FCAB-713A-3944-2E44F0531CBB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3186952" y="3962401"/>
-          <a:ext cx="8780930" cy="1165412"/>
+          <a:off x="3202305" y="4041140"/>
+          <a:ext cx="7980680" cy="1614170"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7027,6 +6302,15 @@
             </a:rPr>
             <a:t> μπορούσαμε να πούμε λοιπόν ότι το γράφημά μας ακολουθεί κανονική κατανομή με μέση τιμή 5.46 και διασπορά 1.45 (ή τουλάχιστον προσεγγίζει την κανονική κατανομή) </a:t>
           </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100" b="0" i="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -7174,21 +6458,15 @@
       <xdr:rowOff>98611</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41F6A32E-9C7C-5E2E-CCE6-04E50393DE2A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7315200" y="4043082"/>
-          <a:ext cx="184731" cy="264560"/>
+          <a:off x="6236970" y="4121785"/>
+          <a:ext cx="184785" cy="264160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7223,6 +6501,33 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>551327</xdr:colOff>
       <xdr:row>8</xdr:row>
@@ -7234,69 +6539,43 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="7" name="Chart 6">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20DABCD5-945D-7AF6-83AF-EA565BA1B445}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5268107" y="1552688"/>
-              <a:ext cx="3022452" cy="2287792"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangles 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noTextEdit="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5290820" y="1552575"/>
+          <a:ext cx="3029585" cy="2287905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:prstClr val="white"/>
+        </a:solidFill>
+        <a:ln w="1">
+          <a:solidFill>
+            <a:prstClr val="green"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -7312,24 +6591,18 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>170330</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A663456-1090-174A-09CF-8824E91952A2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="9505315" y="0"/>
+        <a:ext cx="4566920" cy="3827780"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7339,7 +6612,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -7353,20 +6626,14 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3261A0E-B08F-1475-0A00-EACF6CBC8C46}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="3429000" y="0"/>
+        <a:ext cx="4625340" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7389,20 +6656,14 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>163830</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F75A039-EDF7-7769-262F-9DC55B2B9087}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="3406140" y="2907030"/>
+        <a:ext cx="4632960" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7694,66 +6955,66 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="17.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="7.33333333333333" customWidth="1"/>
+    <col min="7" max="7" width="10.8888888888889" customWidth="1"/>
+    <col min="8" max="8" width="10.1111111111111" customWidth="1"/>
+    <col min="9" max="9" width="21.5555555555556" customWidth="1"/>
+    <col min="10" max="10" width="18.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="G1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="G1" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>106</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="6">
+      <c r="D2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="10">
         <f>AVERAGE(B2:B37)</f>
-        <v>97.472222222222229</v>
+        <v>97.4722222222222</v>
       </c>
       <c r="G2">
         <v>90</v>
@@ -7762,26 +7023,26 @@
         <f t="array" ref="H2:H9">FREQUENCY(B2:B37,G2:G8)</f>
         <v>1</v>
       </c>
-      <c r="I2" s="15">
+      <c r="I2" s="14">
         <f>H2/COUNT($A$2:$A$37)</f>
-        <v>2.7777777777777776E-2</v>
-      </c>
-      <c r="J2" s="16">
+        <v>0.0277777777777778</v>
+      </c>
+      <c r="J2" s="15">
         <f>SUM($I$2:I2)</f>
-        <v>2.7777777777777776E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.0277777777777778</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>95</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="D3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="16">
         <f>MEDIAN(B2:B37)</f>
         <v>95</v>
       </c>
@@ -7791,26 +7052,26 @@
       <c r="H3">
         <v>21</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="14">
         <f t="shared" ref="I3:I9" si="0">H3/COUNT($A$2:$A$37)</f>
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="J3" s="16">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="J3" s="15">
         <f>SUM($I$2:I3)</f>
-        <v>0.61111111111111116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.611111111111111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>103</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="D4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="16">
         <f>MIN(B2:B37)</f>
         <v>89</v>
       </c>
@@ -7820,26 +7081,26 @@
       <c r="H4">
         <v>4</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="14">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="J4" s="16">
+        <v>0.111111111111111</v>
+      </c>
+      <c r="J4" s="15">
         <f>SUM($I$2:I4)</f>
-        <v>0.72222222222222232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.722222222222222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>91</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="D5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="16">
         <f>MAX(B2:B37)</f>
         <v>123</v>
       </c>
@@ -7849,26 +7110,26 @@
       <c r="H5">
         <v>5</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="14">
         <f t="shared" si="0"/>
-        <v>0.1388888888888889</v>
-      </c>
-      <c r="J5" s="16">
+        <v>0.138888888888889</v>
+      </c>
+      <c r="J5" s="15">
         <f>SUM($I$2:I5)</f>
-        <v>0.86111111111111116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.861111111111111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>94</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="D6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="16">
         <f>E5-E4</f>
         <v>34</v>
       </c>
@@ -7878,28 +7139,28 @@
       <c r="H6">
         <v>3</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="14">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="J6" s="16">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="J6" s="15">
         <f>SUM($I$2:I6)</f>
-        <v>0.94444444444444453</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.944444444444445</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>92</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="D7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="10">
         <f>SKEW(B2:B37)</f>
-        <v>1.8832602227658024</v>
+        <v>1.8832602227658</v>
       </c>
       <c r="G7">
         <v>115</v>
@@ -7907,232 +7168,232 @@
       <c r="H7">
         <v>1</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="14">
         <f t="shared" si="0"/>
-        <v>2.7777777777777776E-2</v>
-      </c>
-      <c r="J7" s="16">
+        <v>0.0277777777777778</v>
+      </c>
+      <c r="J7" s="15">
         <f>SUM($I$2:I7)</f>
-        <v>0.97222222222222232</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.972222222222222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>95</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="1"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="3"/>
       <c r="G8">
         <v>120</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="15">
         <f>SUM($I$2:I8)</f>
-        <v>0.97222222222222232</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.972222222222222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>93</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="19"/>
+      <c r="D9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="7"/>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="14">
         <f t="shared" si="0"/>
-        <v>2.7777777777777776E-2</v>
-      </c>
-      <c r="J9" s="16">
+        <v>0.0277777777777778</v>
+      </c>
+      <c r="J9" s="15">
         <f>SUM($I$2:I9)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>102</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="6">
+      <c r="D10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="10">
         <f>VARA(B2:B37)</f>
-        <v>48.884920634920611</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>48.8849206349206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>89</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="D11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="10">
         <f>STDEVA(B2:B37)</f>
-        <v>6.9917752134147317</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>6.99177521341473</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>95</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="8">
+      <c r="D12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="12">
         <f>E11/E2</f>
-        <v>7.1730951177808588E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.0717309511778086</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>98</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D13" s="11"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <v>107</v>
       </c>
-      <c r="D14" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="19"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <v>100</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="7">
+      <c r="D15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="16">
         <f>_xlfn.QUARTILE.EXC(B2:B37,1)</f>
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <v>95</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="7">
+      <c r="D16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="16">
         <f>_xlfn.QUARTILE.EXC(B3:B38,2)</f>
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
         <v>101</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="7">
+      <c r="D17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="16">
         <f>_xlfn.QUARTILE.EXC(B4:B39,3)</f>
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
         <v>97</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="7">
+      <c r="D18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="16">
         <f>E17-E15</f>
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
         <v>93</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="7">
+      <c r="D19" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="16">
         <f>E15-1.5*E18</f>
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
         <v>92</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="7">
+      <c r="D20" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="16">
         <f>E17+1.5*E18</f>
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
         <v>123</v>
       </c>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -8140,58 +7401,58 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
         <v>93</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D23" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
         <v>94</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
         <v>92</v>
       </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -8199,7 +7460,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -8207,41 +7468,41 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
         <v>94</v>
       </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-    </row>
-    <row r="29" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+    </row>
+    <row r="29" customHeight="1" spans="1:12">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
         <v>102</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -8249,7 +7510,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -8257,7 +7518,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -8265,7 +7526,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -8273,7 +7534,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -8281,7 +7542,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -8289,7 +7550,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -8297,7 +7558,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -8307,62 +7568,64 @@
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D9:E9"/>
     <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E91A2646-07CB-4AA5-AEBA-C0765FC6901B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="16.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="5.55555555555556" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="9" max="9" width="10.7777777777778" customWidth="1"/>
+    <col min="10" max="10" width="13.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="18.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="7"/>
+      <c r="H1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="I1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="H1" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8373,12 +7636,12 @@
         <f>_xlfn.CEILING.MATH(B2)</f>
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="E2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="10">
         <f>AVERAGE(B2:B37)</f>
-        <v>5.4558333333333344</v>
+        <v>5.45583333333333</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -8387,32 +7650,32 @@
         <f t="array" ref="I2:I8">FREQUENCY(B2:B37,H2:H7)</f>
         <v>1</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="14">
         <f>I2/COUNT(A:A)</f>
-        <v>2.7777777777777776E-2</v>
-      </c>
-      <c r="K2" s="16">
+        <v>0.0277777777777778</v>
+      </c>
+      <c r="K2" s="15">
         <f>SUM($J$2:J2)</f>
-        <v>2.7777777777777776E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.0277777777777778</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8.1199999999999992</v>
+        <v>8.12</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C37" si="0">_xlfn.CEILING.MATH(B3)</f>
+        <f>_xlfn.CEILING.MATH(B3)</f>
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="E3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="10">
         <f>MEDIAN(B2:B37)</f>
-        <v>5.4050000000000002</v>
+        <v>5.405</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -8420,16 +7683,16 @@
       <c r="I3">
         <v>2</v>
       </c>
-      <c r="J3" s="15">
-        <f t="shared" ref="J3:J8" si="1">I3/COUNT(A:A)</f>
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="K3" s="16">
+      <c r="J3" s="14">
+        <f t="shared" ref="J3:J8" si="0">I3/COUNT(A:A)</f>
+        <v>0.0555555555555556</v>
+      </c>
+      <c r="K3" s="15">
         <f>SUM($J$2:J3)</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.0833333333333333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8437,13 +7700,13 @@
         <v>5.36</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH(B4)</f>
         <v>6</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="E4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="10">
         <f>MIN(B2:B37)</f>
         <v>2.34</v>
       </c>
@@ -8453,16 +7716,16 @@
       <c r="I4">
         <v>7</v>
       </c>
-      <c r="J4" s="15">
-        <f t="shared" si="1"/>
-        <v>0.19444444444444445</v>
-      </c>
-      <c r="K4" s="16">
+      <c r="J4" s="14">
+        <f t="shared" si="0"/>
+        <v>0.194444444444444</v>
+      </c>
+      <c r="K4" s="15">
         <f>SUM($J$2:J4)</f>
-        <v>0.27777777777777779</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.277777777777778</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8470,15 +7733,15 @@
         <v>3.51</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH(B5)</f>
         <v>4</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="E5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="10">
         <f>MAX(B2:B37)</f>
-        <v>8.1199999999999992</v>
+        <v>8.12</v>
       </c>
       <c r="H5">
         <v>6</v>
@@ -8486,16 +7749,16 @@
       <c r="I5">
         <v>14</v>
       </c>
-      <c r="J5" s="15">
-        <f t="shared" si="1"/>
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="K5" s="16">
+      <c r="J5" s="14">
+        <f t="shared" si="0"/>
+        <v>0.388888888888889</v>
+      </c>
+      <c r="K5" s="15">
         <f>SUM($J$2:J5)</f>
-        <v>0.66666666666666674</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.666666666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8503,15 +7766,15 @@
         <v>5.05</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH(B6)</f>
         <v>6</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="E6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="10">
         <f>F5-F4</f>
-        <v>5.7799999999999994</v>
+        <v>5.78</v>
       </c>
       <c r="H6">
         <v>7</v>
@@ -8519,16 +7782,16 @@
       <c r="I6">
         <v>9</v>
       </c>
-      <c r="J6" s="15">
-        <f t="shared" si="1"/>
+      <c r="J6" s="14">
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="15">
         <f>SUM($J$2:J6)</f>
-        <v>0.91666666666666674</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.916666666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8536,13 +7799,13 @@
         <v>5.15</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH(B7)</f>
         <v>6</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="E7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="10">
         <f>SKEW(B2:B37)</f>
         <v>-0.125645788636674</v>
       </c>
@@ -8552,16 +7815,16 @@
       <c r="I7">
         <v>2</v>
       </c>
-      <c r="J7" s="15">
-        <f t="shared" si="1"/>
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="K7" s="16">
+      <c r="J7" s="14">
+        <f t="shared" si="0"/>
+        <v>0.0555555555555556</v>
+      </c>
+      <c r="K7" s="15">
         <f>SUM($J$2:J7)</f>
-        <v>0.97222222222222232</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.972222222222222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8569,27 +7832,27 @@
         <v>6.77</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH(B8)</f>
         <v>7</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="1"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="3"/>
       <c r="H8">
         <v>9</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8" s="15">
-        <f t="shared" si="1"/>
-        <v>2.7777777777777776E-2</v>
-      </c>
-      <c r="K8" s="16">
+      <c r="J8" s="14">
+        <f t="shared" si="0"/>
+        <v>0.0277777777777778</v>
+      </c>
+      <c r="K8" s="15">
         <f>SUM($J$2:J8)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8597,15 +7860,15 @@
         <v>5.45</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH(B9)</f>
         <v>6</v>
       </c>
-      <c r="E9" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="19"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8613,18 +7876,18 @@
         <v>6.14</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH(B10)</f>
         <v>7</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="6">
+      <c r="E10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="10">
         <f>VARA(B2:B37)</f>
-        <v>1.3484821428571194</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.34848214285712</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8632,18 +7895,18 @@
         <v>7.02</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH(B11)</f>
         <v>8</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="6">
+      <c r="E11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="10">
         <f>STDEVA(B2:B37)</f>
-        <v>1.1612416384444366</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.16124163844444</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8651,18 +7914,18 @@
         <v>5.84</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH(B12)</f>
         <v>6</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="8">
+      <c r="E12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="12">
         <f>F11/F2</f>
-        <v>0.21284404553739478</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.212844045537395</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8670,13 +7933,13 @@
         <v>6.42</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH(B13)</f>
         <v>7</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E13" s="11"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8684,15 +7947,15 @@
         <v>6.5</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH(B14)</f>
         <v>7</v>
       </c>
-      <c r="E14" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="19"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8700,18 +7963,18 @@
         <v>7.86</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH(B15)</f>
         <v>8</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="6">
+      <c r="E15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="10">
         <f>_xlfn.QUARTILE.EXC(B2:B37,1)</f>
-        <v>4.7824999999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>4.7825</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8719,18 +7982,18 @@
         <v>5.56</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH(B16)</f>
         <v>6</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="6">
+      <c r="E16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="10">
         <f>_xlfn.QUARTILE.EXC(B3:B38,2)</f>
         <v>5.36</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>16</v>
       </c>
@@ -8738,37 +8001,37 @@
         <v>6.1</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH(B17)</f>
         <v>7</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="6">
+      <c r="E17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="10">
         <f>_xlfn.QUARTILE.EXC(B4:B39,3)</f>
         <v>6.1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH(B18)</f>
         <v>5</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="6">
+      <c r="E18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="10">
         <f>F17-F15</f>
-        <v>1.3174999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.3175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>18</v>
       </c>
@@ -8776,18 +8039,18 @@
         <v>4.42</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH(B19)</f>
         <v>5</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="6">
+      <c r="E19" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="10">
         <f>F15-1.5*F18</f>
-        <v>2.8062499999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2.80625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>19</v>
       </c>
@@ -8795,18 +8058,18 @@
         <v>6.47</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH(B20)</f>
         <v>7</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="6">
+      <c r="E20" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="10">
         <f>F17+1.5*F18</f>
-        <v>8.0762499999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8.07625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -8814,11 +8077,11 @@
         <v>4.42</v>
       </c>
       <c r="C21">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH(B21)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>21</v>
       </c>
@@ -8826,14 +8089,14 @@
         <v>6.1</v>
       </c>
       <c r="C22">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH(B22)</f>
         <v>7</v>
       </c>
-      <c r="E22" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E22" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -8841,11 +8104,11 @@
         <v>5.81</v>
       </c>
       <c r="C23">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH(B23)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>23</v>
       </c>
@@ -8853,14 +8116,14 @@
         <v>4.71</v>
       </c>
       <c r="C24">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH(B24)</f>
         <v>5</v>
       </c>
-      <c r="E24" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E24" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -8868,11 +8131,11 @@
         <v>5.03</v>
       </c>
       <c r="C25">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH(B25)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -8880,11 +8143,11 @@
         <v>5.35</v>
       </c>
       <c r="C26">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH(B26)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -8892,11 +8155,11 @@
         <v>2.34</v>
       </c>
       <c r="C27">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH(B27)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -8904,11 +8167,11 @@
         <v>5.05</v>
       </c>
       <c r="C28">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH(B28)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -8916,11 +8179,11 @@
         <v>4.21</v>
       </c>
       <c r="C29">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH(B29)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -8928,11 +8191,11 @@
         <v>5</v>
       </c>
       <c r="C30">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH(B30)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -8940,11 +8203,11 @@
         <v>5.46</v>
       </c>
       <c r="C31">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH(B31)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -8952,11 +8215,11 @@
         <v>5.28</v>
       </c>
       <c r="C32">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH(B32)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -8964,11 +8227,11 @@
         <v>5.71</v>
       </c>
       <c r="C33">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH(B33)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -8976,11 +8239,11 @@
         <v>4.24</v>
       </c>
       <c r="C34">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH(B34)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -8988,11 +8251,11 @@
         <v>6.07</v>
       </c>
       <c r="C35">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH(B35)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -9000,11 +8263,11 @@
         <v>5.34</v>
       </c>
       <c r="C36">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH(B36)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -9012,827 +8275,829 @@
         <v>3.74</v>
       </c>
       <c r="C37">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH(B37)</f>
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E9:F9"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E9:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78AB9CF3-16EB-47E5-A2CA-C8B3B9605AF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView zoomScale="91" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
       <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1947</v>
       </c>
       <c r="B2">
         <v>37.6</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1948</v>
       </c>
       <c r="B3">
         <v>37.1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <f>(B2+B3+B4)/3</f>
         <v>37.5</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <f>B3-C3</f>
-        <v>-0.39999999999999858</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.399999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>1949</v>
       </c>
       <c r="B4">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="C4" s="1">
+        <v>37.8</v>
+      </c>
+      <c r="C4" s="3">
         <f t="shared" ref="C4:C50" si="0">(B3+B4+B5)/3</f>
         <v>37.6</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <f t="shared" ref="D4:D50" si="1">B4-C4</f>
-        <v>0.19999999999999574</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.199999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>1950</v>
       </c>
       <c r="B5">
         <v>37.9</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <f t="shared" si="0"/>
-        <v>37.333333333333329</v>
-      </c>
-      <c r="D5" s="2">
+        <v>37.3333333333333</v>
+      </c>
+      <c r="D5" s="4">
         <f t="shared" si="1"/>
-        <v>0.56666666666666998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.56666666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>1951</v>
       </c>
       <c r="B6">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="C6" s="1">
+        <v>36.3</v>
+      </c>
+      <c r="C6" s="3">
         <f t="shared" si="0"/>
-        <v>36.999999999999993</v>
-      </c>
-      <c r="D6" s="2">
+        <v>37</v>
+      </c>
+      <c r="D6" s="4">
         <f t="shared" si="1"/>
-        <v>-0.69999999999999574</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.699999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>1952</v>
       </c>
       <c r="B7">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="C7" s="1">
+        <v>36.8</v>
+      </c>
+      <c r="C7" s="3">
         <f t="shared" si="0"/>
-        <v>36.333333333333336</v>
-      </c>
-      <c r="D7" s="2">
+        <v>36.3333333333333</v>
+      </c>
+      <c r="D7" s="4">
         <f t="shared" si="1"/>
-        <v>0.46666666666666146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.466666666666661</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>1953</v>
       </c>
       <c r="B8">
         <v>35.9</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <f t="shared" si="0"/>
-        <v>36.599999999999994</v>
-      </c>
-      <c r="D8" s="2">
+        <v>36.6</v>
+      </c>
+      <c r="D8" s="4">
         <f t="shared" si="1"/>
-        <v>-0.69999999999999574</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.699999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>1954</v>
       </c>
       <c r="B9">
         <v>37.1</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3">
         <f t="shared" si="0"/>
-        <v>36.43333333333333</v>
-      </c>
-      <c r="D9" s="2">
+        <v>36.4333333333333</v>
+      </c>
+      <c r="D9" s="4">
         <f t="shared" si="1"/>
-        <v>0.6666666666666714</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.666666666666671</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>1955</v>
       </c>
       <c r="B10">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="C10" s="1">
+        <v>36.3</v>
+      </c>
+      <c r="C10" s="3">
         <f t="shared" si="0"/>
         <v>36.4</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="4">
         <f t="shared" si="1"/>
-        <v>-0.10000000000000142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.100000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>1956</v>
       </c>
       <c r="B11">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="C11" s="1">
+        <v>35.8</v>
+      </c>
+      <c r="C11" s="3">
         <f t="shared" si="0"/>
-        <v>35.733333333333327</v>
-      </c>
-      <c r="D11" s="2">
+        <v>35.7333333333333</v>
+      </c>
+      <c r="D11" s="4">
         <f t="shared" si="1"/>
-        <v>6.6666666666669983E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.06666666666667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>1957</v>
       </c>
       <c r="B12">
         <v>35.1</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="3">
         <f t="shared" si="0"/>
-        <v>35.433333333333337</v>
-      </c>
-      <c r="D12" s="2">
+        <v>35.4333333333333</v>
+      </c>
+      <c r="D12" s="4">
         <f t="shared" si="1"/>
-        <v>-0.3333333333333357</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.333333333333336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>1958</v>
       </c>
       <c r="B13">
         <v>35.4</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="3">
         <f t="shared" si="0"/>
         <v>35.6</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="4">
         <f t="shared" si="1"/>
-        <v>-0.20000000000000284</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.200000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>1959</v>
       </c>
       <c r="B14">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="C14" s="1">
+        <v>36.3</v>
+      </c>
+      <c r="C14" s="3">
         <f t="shared" si="0"/>
-        <v>36.033333333333331</v>
-      </c>
-      <c r="D14" s="2">
+        <v>36.0333333333333</v>
+      </c>
+      <c r="D14" s="4">
         <f t="shared" si="1"/>
-        <v>0.26666666666666572</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.266666666666666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>1960</v>
       </c>
       <c r="B15">
         <v>36.4</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="3">
         <f t="shared" si="0"/>
-        <v>36.699999999999996</v>
-      </c>
-      <c r="D15" s="2">
+        <v>36.7</v>
+      </c>
+      <c r="D15" s="4">
         <f t="shared" si="1"/>
-        <v>-0.29999999999999716</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.299999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>1961</v>
       </c>
       <c r="B16">
         <v>37.4</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="3">
         <f t="shared" si="0"/>
-        <v>36.666666666666664</v>
-      </c>
-      <c r="D16" s="2">
+        <v>36.6666666666667</v>
+      </c>
+      <c r="D16" s="4">
         <f t="shared" si="1"/>
-        <v>0.73333333333333428</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.733333333333334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>1962</v>
       </c>
       <c r="B17">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="C17" s="1">
+        <v>36.2</v>
+      </c>
+      <c r="C17" s="3">
         <f t="shared" si="0"/>
-        <v>37.266666666666666</v>
-      </c>
-      <c r="D17" s="2">
+        <v>37.2666666666667</v>
+      </c>
+      <c r="D17" s="4">
         <f t="shared" si="1"/>
-        <v>-1.0666666666666629</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.06666666666666</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>1963</v>
       </c>
       <c r="B18">
-        <v>38.200000000000003</v>
-      </c>
-      <c r="C18" s="1">
+        <v>38.2</v>
+      </c>
+      <c r="C18" s="3">
         <f t="shared" si="0"/>
-        <v>36.833333333333336</v>
-      </c>
-      <c r="D18" s="2">
+        <v>36.8333333333333</v>
+      </c>
+      <c r="D18" s="4">
         <f t="shared" si="1"/>
-        <v>1.3666666666666671</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.36666666666667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>1964</v>
       </c>
       <c r="B19">
         <v>36.1</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="3">
         <f t="shared" si="0"/>
-        <v>36.633333333333333</v>
-      </c>
-      <c r="D19" s="2">
+        <v>36.6333333333333</v>
+      </c>
+      <c r="D19" s="4">
         <f t="shared" si="1"/>
-        <v>-0.53333333333333144</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.533333333333331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>1965</v>
       </c>
       <c r="B20">
         <v>35.6</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="3">
         <f t="shared" si="0"/>
-        <v>35.533333333333331</v>
-      </c>
-      <c r="D20" s="2">
+        <v>35.5333333333333</v>
+      </c>
+      <c r="D20" s="4">
         <f t="shared" si="1"/>
-        <v>6.6666666666669983E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.06666666666667</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>1966</v>
       </c>
       <c r="B21">
         <v>34.9</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="3">
         <f t="shared" si="0"/>
         <v>35.1</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="4">
         <f t="shared" si="1"/>
-        <v>-0.20000000000000284</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.200000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>1967</v>
       </c>
       <c r="B22">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="C22" s="1">
+        <v>34.8</v>
+      </c>
+      <c r="C22" s="3">
         <f t="shared" si="0"/>
-        <v>34.833333333333329</v>
-      </c>
-      <c r="D22" s="2">
+        <v>34.8333333333333</v>
+      </c>
+      <c r="D22" s="4">
         <f t="shared" si="1"/>
-        <v>-3.3333333333331439E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.0333333333333314</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>1968</v>
       </c>
       <c r="B23">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="C23" s="1">
+        <v>34.8</v>
+      </c>
+      <c r="C23" s="3">
         <f t="shared" si="0"/>
-        <v>34.833333333333336</v>
-      </c>
-      <c r="D23" s="2">
+        <v>34.8333333333333</v>
+      </c>
+      <c r="D23" s="4">
         <f t="shared" si="1"/>
-        <v>-3.3333333333338544E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.0333333333333385</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>1969</v>
       </c>
       <c r="B24">
         <v>34.9</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="3">
         <f t="shared" si="0"/>
-        <v>35.566666666666663</v>
-      </c>
-      <c r="D24" s="2">
+        <v>35.5666666666667</v>
+      </c>
+      <c r="D24" s="4">
         <f t="shared" si="1"/>
-        <v>-0.6666666666666643</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.666666666666664</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>1970</v>
       </c>
       <c r="B25">
         <v>37</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="3">
         <f t="shared" si="0"/>
-        <v>35.800000000000004</v>
-      </c>
-      <c r="D25" s="2">
+        <v>35.8</v>
+      </c>
+      <c r="D25" s="4">
         <f t="shared" si="1"/>
-        <v>1.1999999999999957</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>1971</v>
       </c>
       <c r="B26">
         <v>35.5</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="3">
         <f t="shared" si="0"/>
-        <v>36.133333333333333</v>
-      </c>
-      <c r="D26" s="2">
+        <v>36.1333333333333</v>
+      </c>
+      <c r="D26" s="4">
         <f t="shared" si="1"/>
-        <v>-0.63333333333333286</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.633333333333333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>1972</v>
       </c>
       <c r="B27">
         <v>35.9</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="3">
         <f t="shared" si="0"/>
-        <v>35.666666666666664</v>
-      </c>
-      <c r="D27" s="2">
+        <v>35.6666666666667</v>
+      </c>
+      <c r="D27" s="4">
         <f t="shared" si="1"/>
-        <v>0.23333333333333428</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.233333333333334</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>1973</v>
       </c>
       <c r="B28">
         <v>35.6</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="3">
         <f t="shared" si="0"/>
-        <v>35.666666666666664</v>
-      </c>
-      <c r="D28" s="2">
+        <v>35.6666666666667</v>
+      </c>
+      <c r="D28" s="4">
         <f t="shared" si="1"/>
-        <v>-6.6666666666662877E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.0666666666666629</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>1974</v>
       </c>
       <c r="B29">
         <v>35.5</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="3">
         <f t="shared" si="0"/>
         <v>35.6</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="4">
         <f t="shared" si="1"/>
-        <v>-0.10000000000000142</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.100000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>1975</v>
       </c>
       <c r="B30">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="C30" s="1">
+        <v>35.7</v>
+      </c>
+      <c r="C30" s="3">
         <f t="shared" si="0"/>
-        <v>35.666666666666664</v>
-      </c>
-      <c r="D30" s="2">
+        <v>35.6666666666667</v>
+      </c>
+      <c r="D30" s="4">
         <f t="shared" si="1"/>
-        <v>3.3333333333338544E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.0333333333333385</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>1976</v>
       </c>
       <c r="B31">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="C31" s="1">
+        <v>35.8</v>
+      </c>
+      <c r="C31" s="3">
         <f t="shared" si="0"/>
-        <v>35.93333333333333</v>
-      </c>
-      <c r="D31" s="2">
+        <v>35.9333333333333</v>
+      </c>
+      <c r="D31" s="4">
         <f t="shared" si="1"/>
-        <v>-0.13333333333333286</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.133333333333333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>1977</v>
       </c>
       <c r="B32">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="C32" s="1">
+        <v>36.3</v>
+      </c>
+      <c r="C32" s="3">
         <f t="shared" si="0"/>
-        <v>36.299999999999997</v>
-      </c>
-      <c r="D32" s="2">
+        <v>36.3</v>
+      </c>
+      <c r="D32" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>1978</v>
       </c>
       <c r="B33">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="C33" s="1">
+        <v>36.8</v>
+      </c>
+      <c r="C33" s="3">
         <f t="shared" si="0"/>
-        <v>36.533333333333331</v>
-      </c>
-      <c r="D33" s="2">
+        <v>36.5333333333333</v>
+      </c>
+      <c r="D33" s="4">
         <f t="shared" si="1"/>
-        <v>0.26666666666666572</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.266666666666666</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>1979</v>
       </c>
       <c r="B34">
         <v>36.5</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="3">
         <f t="shared" si="0"/>
-        <v>37.266666666666666</v>
-      </c>
-      <c r="D34" s="2">
+        <v>37.2666666666667</v>
+      </c>
+      <c r="D34" s="4">
         <f t="shared" si="1"/>
-        <v>-0.76666666666666572</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.766666666666666</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>1980</v>
       </c>
       <c r="B35">
         <v>38.5</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="3">
         <f t="shared" si="0"/>
-        <v>37.300000000000004</v>
-      </c>
-      <c r="D35" s="2">
+        <v>37.3</v>
+      </c>
+      <c r="D35" s="4">
         <f t="shared" si="1"/>
-        <v>1.1999999999999957</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>1981</v>
       </c>
       <c r="B36">
         <v>36.9</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="3">
         <f t="shared" si="0"/>
-        <v>37.800000000000004</v>
-      </c>
-      <c r="D36" s="2">
+        <v>37.8</v>
+      </c>
+      <c r="D36" s="4">
         <f t="shared" si="1"/>
-        <v>-0.90000000000000568</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.900000000000006</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>1982</v>
       </c>
       <c r="B37">
         <v>38</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="3">
         <f t="shared" si="0"/>
-        <v>37.700000000000003</v>
-      </c>
-      <c r="D37" s="2">
+        <v>37.7</v>
+      </c>
+      <c r="D37" s="4">
         <f t="shared" si="1"/>
-        <v>0.29999999999999716</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.299999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>1983</v>
       </c>
       <c r="B38">
-        <v>38.200000000000003</v>
-      </c>
-      <c r="C38" s="1">
+        <v>38.2</v>
+      </c>
+      <c r="C38" s="3">
         <f t="shared" si="0"/>
-        <v>38.166666666666664</v>
-      </c>
-      <c r="D38" s="2">
+        <v>38.1666666666667</v>
+      </c>
+      <c r="D38" s="4">
         <f t="shared" si="1"/>
-        <v>3.3333333333338544E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.0333333333333385</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>1984</v>
       </c>
       <c r="B39">
-        <v>38.299999999999997</v>
-      </c>
-      <c r="C39" s="1">
+        <v>38.3</v>
+      </c>
+      <c r="C39" s="3">
         <f t="shared" si="0"/>
-        <v>38.466666666666669</v>
-      </c>
-      <c r="D39" s="2">
+        <v>38.4666666666667</v>
+      </c>
+      <c r="D39" s="4">
         <f t="shared" si="1"/>
-        <v>-0.1666666666666714</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.166666666666671</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>1985</v>
       </c>
       <c r="B40">
         <v>38.9</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="3">
         <f t="shared" si="0"/>
-        <v>38.799999999999997</v>
-      </c>
-      <c r="D40" s="2">
+        <v>38.8</v>
+      </c>
+      <c r="D40" s="4">
         <f t="shared" si="1"/>
-        <v>0.10000000000000142</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.100000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>1986</v>
       </c>
       <c r="B41">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="C41" s="1">
+        <v>39.2</v>
+      </c>
+      <c r="C41" s="3">
         <f t="shared" si="0"/>
-        <v>39.133333333333333</v>
-      </c>
-      <c r="D41" s="2">
+        <v>39.1333333333333</v>
+      </c>
+      <c r="D41" s="4">
         <f t="shared" si="1"/>
-        <v>6.6666666666669983E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.06666666666667</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>1987</v>
       </c>
       <c r="B42">
-        <v>39.299999999999997</v>
-      </c>
-      <c r="C42" s="1">
+        <v>39.3</v>
+      </c>
+      <c r="C42" s="3">
         <f t="shared" si="0"/>
-        <v>39.333333333333336</v>
-      </c>
-      <c r="D42" s="2">
+        <v>39.3333333333333</v>
+      </c>
+      <c r="D42" s="4">
         <f t="shared" si="1"/>
-        <v>-3.3333333333338544E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.0333333333333385</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>1988</v>
       </c>
       <c r="B43">
         <v>39.5</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="3">
         <f t="shared" si="0"/>
-        <v>39.633333333333333</v>
-      </c>
-      <c r="D43" s="2">
+        <v>39.6333333333333</v>
+      </c>
+      <c r="D43" s="4">
         <f t="shared" si="1"/>
-        <v>-0.13333333333333286</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.133333333333333</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>1989</v>
       </c>
       <c r="B44">
         <v>40.1</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="3">
         <f t="shared" si="0"/>
-        <v>39.733333333333327</v>
-      </c>
-      <c r="D44" s="2">
+        <v>39.7333333333333</v>
+      </c>
+      <c r="D44" s="4">
         <f t="shared" si="1"/>
-        <v>0.36666666666667425</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.366666666666674</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>1990</v>
       </c>
       <c r="B45">
         <v>39.6</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="3">
         <f t="shared" si="0"/>
-        <v>39.800000000000004</v>
-      </c>
-      <c r="D45" s="2">
+        <v>39.8</v>
+      </c>
+      <c r="D45" s="4">
         <f t="shared" si="1"/>
-        <v>-0.20000000000000284</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.200000000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>1991</v>
       </c>
       <c r="B46">
-        <v>39.700000000000003</v>
-      </c>
-      <c r="C46" s="1">
+        <v>39.7</v>
+      </c>
+      <c r="C46" s="3">
         <f t="shared" si="0"/>
-        <v>39.900000000000006</v>
-      </c>
-      <c r="D46" s="2">
+        <v>39.9</v>
+      </c>
+      <c r="D46" s="4">
         <f t="shared" si="1"/>
-        <v>-0.20000000000000284</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.200000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>1992</v>
       </c>
       <c r="B47">
         <v>40.4</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="3">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="4">
         <f t="shared" si="1"/>
-        <v>-0.60000000000000142</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.600000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>1993</v>
       </c>
       <c r="B48">
         <v>42.9</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="3">
         <f t="shared" si="0"/>
-        <v>41.966666666666669</v>
-      </c>
-      <c r="D48" s="2">
+        <v>41.9666666666667</v>
+      </c>
+      <c r="D48" s="4">
         <f t="shared" si="1"/>
-        <v>0.93333333333333002</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.93333333333333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>1994</v>
       </c>
       <c r="B49">
         <v>42.6</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="3">
         <f t="shared" si="0"/>
-        <v>42.533333333333331</v>
-      </c>
-      <c r="D49" s="2">
+        <v>42.5333333333333</v>
+      </c>
+      <c r="D49" s="4">
         <f t="shared" si="1"/>
-        <v>6.6666666666669983E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.06666666666667</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>1995</v>
       </c>
       <c r="B50">
         <v>42.1</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="3">
         <f t="shared" si="0"/>
         <v>42.4</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="4">
         <f t="shared" si="1"/>
-        <v>-0.29999999999999716</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.299999999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51">
         <v>1996</v>
       </c>
@@ -9842,6 +9107,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>